--- a/all-results-trimed.xlsx
+++ b/all-results-trimed.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumensardar/Documents/Projects/scm4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FFC363-FA3C-094E-BC57-188859A8AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807FFD6-1BDE-5A40-9C8F-BDC9BD441A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-results" sheetId="1" r:id="rId1"/>
-    <sheet name="baseline" sheetId="2" r:id="rId2"/>
-    <sheet name="dataset" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="baseline" sheetId="2" r:id="rId3"/>
+    <sheet name="dataset" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'all-results'!$A$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="121">
   <si>
     <t>Duration</t>
   </si>
@@ -360,16 +362,56 @@
   <si>
     <t xml:space="preserve">Forecasts for
  Product Demand </t>
+  </si>
+  <si>
+    <t>Feature
+Engg.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>EBM</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>TabNet</t>
+  </si>
+  <si>
+    <t>SSL+TabNet</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>2nd Best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +576,33 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -947,9 +1016,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -970,15 +1038,56 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1338,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1471,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C1" t="s">
@@ -1422,135 +1531,135 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>816</v>
+        <v>68</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6120</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <f>H2+L2</f>
-        <v>237165</v>
+        <v>2935849</v>
       </c>
       <c r="H2">
-        <v>47433</v>
+        <v>587170</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>189732</v>
+        <v>2348679</v>
       </c>
       <c r="M2">
-        <v>878282.65678661806</v>
+        <v>0.48394214936226998</v>
       </c>
       <c r="N2">
-        <v>973.61337564316204</v>
+        <v>0.32198980651791498</v>
       </c>
       <c r="O2">
-        <v>5206301448558.1396</v>
+        <v>18.585816598233801</v>
       </c>
       <c r="P2">
-        <v>2281732.1158624501</v>
+        <v>4.3111270682077896</v>
       </c>
       <c r="Q2">
-        <v>1549046.9106876201</v>
+        <v>0.39412232689773202</v>
       </c>
       <c r="R2">
-        <v>980.24829016725596</v>
+        <v>0.25464549439664802</v>
       </c>
       <c r="S2">
-        <v>57085909070272.602</v>
+        <v>3.2503664609162701</v>
       </c>
       <c r="T2">
-        <v>7555521.7602937697</v>
+        <v>1.8028772728381299</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
-        <v>684</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9360</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="0">H3+L3</f>
-        <v>237165</v>
+        <f>H3+L3</f>
+        <v>2935849</v>
       </c>
       <c r="H3">
-        <v>47433</v>
+        <v>587170</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>189732</v>
+        <v>2348679</v>
       </c>
       <c r="M3">
-        <v>771421.50137847604</v>
+        <v>0.42945388525377698</v>
       </c>
       <c r="N3">
-        <v>123.084207495877</v>
+        <v>0.24777053029493101</v>
       </c>
       <c r="O3">
-        <v>6015428768567.6904</v>
+        <v>18.879788404044799</v>
       </c>
       <c r="P3">
-        <v>2452637.1049479898</v>
+        <v>4.3450878476786698</v>
       </c>
       <c r="Q3">
-        <v>1449514.7083115799</v>
+        <v>0.41709965420501199</v>
       </c>
       <c r="R3">
-        <v>118.592547932437</v>
+        <v>0.249979791721197</v>
       </c>
       <c r="S3">
-        <v>63469906841718.797</v>
+        <v>3.7981606643485</v>
       </c>
       <c r="T3">
-        <v>7966800.28880597</v>
+        <v>1.9488870322182601</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2526</v>
       </c>
       <c r="C4" t="s">
@@ -1566,7 +1675,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>H4+L4</f>
         <v>2935849</v>
       </c>
       <c r="H4">
@@ -1611,10 +1720,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4">
-        <v>9360</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="3">
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1626,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>H5+L5</f>
         <v>2935849</v>
       </c>
       <c r="H5">
@@ -1648,288 +1757,288 @@
         <v>2348679</v>
       </c>
       <c r="M5">
-        <v>0.42945388525377698</v>
+        <v>0.39367584850201198</v>
       </c>
       <c r="N5">
-        <v>0.24777053029493101</v>
+        <v>0.22939550467606401</v>
       </c>
       <c r="O5">
-        <v>18.879788404044799</v>
+        <v>14.9199616740637</v>
       </c>
       <c r="P5">
-        <v>4.3450878476786698</v>
+        <v>3.8626366220580102</v>
       </c>
       <c r="Q5">
-        <v>0.41709965420501199</v>
+        <v>0.34155701193186599</v>
       </c>
       <c r="R5">
-        <v>0.249979791721197</v>
+        <v>0.20762078245439</v>
       </c>
       <c r="S5">
-        <v>3.7981606643485</v>
+        <v>2.7231067192282601</v>
       </c>
       <c r="T5">
-        <v>1.9488870322182601</v>
+        <v>1.65018384406958</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1596</v>
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H6+L6</f>
+        <v>237165</v>
       </c>
       <c r="H6">
-        <v>207468</v>
+        <v>47433</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L6">
-        <v>829868</v>
+        <v>189732</v>
       </c>
       <c r="M6">
-        <v>6150.6406943392603</v>
+        <v>1136671.8516844099</v>
       </c>
       <c r="N6">
-        <v>2.4133609770067699E+17</v>
+        <v>1221.0183637596699</v>
       </c>
       <c r="O6">
-        <v>817864572.04866803</v>
+        <v>4947905781436.3496</v>
       </c>
       <c r="P6">
-        <v>28598.331630510598</v>
+        <v>2224388.8557166299</v>
       </c>
       <c r="Q6">
-        <v>5908.2380459360702</v>
+        <v>1561040.68478877</v>
       </c>
       <c r="R6">
-        <v>3.4075983010024301E+17</v>
+        <v>979.43064169683498</v>
       </c>
       <c r="S6">
-        <v>744083288.91006899</v>
+        <v>24021933789462.102</v>
       </c>
       <c r="T6">
-        <v>27277.890111041699</v>
+        <v>4901217.5823423797</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3282</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>684</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H7+L7</f>
+        <v>237165</v>
       </c>
       <c r="H7">
-        <v>207468</v>
+        <v>47433</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L7">
-        <v>829868</v>
+        <v>189732</v>
       </c>
       <c r="M7">
-        <v>6182.7845676440002</v>
+        <v>771421.50137847604</v>
       </c>
       <c r="N7">
-        <v>2.3883914035887398E+17</v>
+        <v>123.084207495877</v>
       </c>
       <c r="O7">
-        <v>874748688.97130406</v>
+        <v>6015428768567.6904</v>
       </c>
       <c r="P7">
-        <v>29576.1506787361</v>
+        <v>2452637.1049479898</v>
       </c>
       <c r="Q7">
-        <v>5948.0344746119199</v>
+        <v>1449514.7083115799</v>
       </c>
       <c r="R7">
-        <v>3.1338624109773702E+17</v>
+        <v>118.592547932437</v>
       </c>
       <c r="S7">
-        <v>765296507.67522395</v>
+        <v>63469906841718.797</v>
       </c>
       <c r="T7">
-        <v>27663.992981404899</v>
+        <v>7966800.28880597</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4">
-        <v>846</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>816</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>824364</v>
+        <f>H8+L8</f>
+        <v>237165</v>
       </c>
       <c r="H8">
-        <v>164873</v>
+        <v>47433</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L8">
-        <v>659491</v>
+        <v>189732</v>
       </c>
       <c r="M8">
-        <v>11.018062301370399</v>
+        <v>878282.65678661806</v>
       </c>
       <c r="N8">
-        <v>2.2810663434156901</v>
+        <v>973.61337564316204</v>
       </c>
       <c r="O8">
-        <v>82061.721254846198</v>
+        <v>5206301448558.1396</v>
       </c>
       <c r="P8">
-        <v>286.46417097928003</v>
+        <v>2281732.1158624501</v>
       </c>
       <c r="Q8">
-        <v>11.901832043110799</v>
+        <v>1549046.9106876201</v>
       </c>
       <c r="R8">
-        <v>2.2044701972403802</v>
+        <v>980.24829016725596</v>
       </c>
       <c r="S8">
-        <v>24081.2938092556</v>
+        <v>57085909070272.602</v>
       </c>
       <c r="T8">
-        <v>155.18148668335201</v>
+        <v>7555521.7602937697</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1662</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <v>24.9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>824364</v>
+        <f>H9+L9</f>
+        <v>237165</v>
       </c>
       <c r="H9">
-        <v>164873</v>
+        <v>47433</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L9">
-        <v>659491</v>
+        <v>189732</v>
       </c>
       <c r="M9">
-        <v>11.0109965737915</v>
+        <v>580684.67737845902</v>
       </c>
       <c r="N9">
-        <v>2.1333030940239599</v>
+        <v>140.47354472558499</v>
       </c>
       <c r="O9">
-        <v>82070.540656641897</v>
+        <v>2244333572200.1899</v>
       </c>
       <c r="P9">
-        <v>286.47956411695702</v>
+        <v>1498110.0000334401</v>
       </c>
       <c r="Q9">
-        <v>11.961414263749401</v>
+        <v>711668.10815142095</v>
       </c>
       <c r="R9">
-        <v>2.1147182657385302</v>
+        <v>189.90957874447301</v>
       </c>
       <c r="S9">
-        <v>24078.662557588501</v>
+        <v>7359615501442.8799</v>
       </c>
       <c r="T9">
-        <v>155.17300846986399</v>
+        <v>2712861.1283003101</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4">
-        <v>468</v>
+        <v>76</v>
+      </c>
+      <c r="B10" s="3">
+        <v>558</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1941,10 +2050,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>H10+L10</f>
         <v>406829</v>
       </c>
       <c r="H10">
@@ -1963,35 +2072,35 @@
         <v>325463</v>
       </c>
       <c r="M10">
-        <v>11.970963388605901</v>
+        <v>10.7992881680628</v>
       </c>
       <c r="N10">
-        <v>2.7185832013583799</v>
+        <v>2.3368575682124</v>
       </c>
       <c r="O10">
-        <v>164374.56466248099</v>
+        <v>164206.92837942799</v>
       </c>
       <c r="P10">
-        <v>405.43133162408799</v>
+        <v>405.22454069247601</v>
       </c>
       <c r="Q10">
-        <v>11.7525900339239</v>
+        <v>9.5930431124829507</v>
       </c>
       <c r="R10">
-        <v>2.27550280383982</v>
+        <v>1.9112789113836199</v>
       </c>
       <c r="S10">
-        <v>36206.4938192806</v>
+        <v>35639.445641358201</v>
       </c>
       <c r="T10">
-        <v>190.28004051734001</v>
+        <v>188.78412444206799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>792</v>
       </c>
       <c r="C11" t="s">
@@ -2007,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>H11+L11</f>
         <v>406829</v>
       </c>
       <c r="H11">
@@ -2052,466 +2161,466 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3294</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>237165</v>
+        <f>H12+L12</f>
+        <v>406829</v>
       </c>
       <c r="H12">
-        <v>47433</v>
+        <v>81366</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>189732</v>
+        <v>325463</v>
       </c>
       <c r="M12">
-        <v>464442.02057973901</v>
+        <v>11.970963388605901</v>
       </c>
       <c r="N12">
-        <v>653.85927387733602</v>
+        <v>2.7185832013583799</v>
       </c>
       <c r="O12">
-        <v>2224819160967.4102</v>
+        <v>164374.56466248099</v>
       </c>
       <c r="P12">
-        <v>1491582.7704044399</v>
+        <v>405.43133162408799</v>
       </c>
       <c r="Q12">
-        <v>1006635.42643956</v>
+        <v>11.7525900339239</v>
       </c>
       <c r="R12">
-        <v>650.61511824952004</v>
+        <v>2.27550280383982</v>
       </c>
       <c r="S12">
-        <v>31139293745404.5</v>
+        <v>36206.4938192806</v>
       </c>
       <c r="T12">
-        <v>5580259.2901588799</v>
+        <v>190.28004051734001</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4">
-        <v>642</v>
+        <v>77</v>
+      </c>
+      <c r="B13" s="3">
+        <v>57.7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>237165</v>
+        <f>H13+L13</f>
+        <v>406829</v>
       </c>
       <c r="H13">
-        <v>47433</v>
+        <v>81366</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L13">
-        <v>189732</v>
+        <v>325463</v>
       </c>
       <c r="M13">
-        <v>746192.34974620503</v>
+        <v>12.481587667168499</v>
       </c>
       <c r="N13">
-        <v>526.94953116208706</v>
+        <v>2.9586074609036102</v>
       </c>
       <c r="O13">
-        <v>5310341598292.5</v>
+        <v>164819.31693445801</v>
       </c>
       <c r="P13">
-        <v>2304417.8436847101</v>
+        <v>405.979453832898</v>
       </c>
       <c r="Q13">
-        <v>1410110.0156932599</v>
+        <v>10.423768261772601</v>
       </c>
       <c r="R13">
-        <v>537.72048056623805</v>
+        <v>2.0854112989341198</v>
       </c>
       <c r="S13">
-        <v>58876459617995</v>
+        <v>35790.719156984604</v>
       </c>
       <c r="T13">
-        <v>7673099.7398701301</v>
+        <v>189.184352304794</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="4">
-        <v>55.1</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="3">
+        <v>696</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>237165</v>
+        <f>H14+L14</f>
+        <v>824364</v>
       </c>
       <c r="H14">
-        <v>47433</v>
+        <v>164873</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L14">
-        <v>189732</v>
+        <v>659491</v>
       </c>
       <c r="M14">
-        <v>60558.266532668298</v>
+        <v>12.409889107821501</v>
       </c>
       <c r="N14">
-        <v>115.189019956954</v>
+        <v>3.0299000260789399</v>
       </c>
       <c r="O14">
-        <v>24288270905.349201</v>
+        <v>82180.471008986802</v>
       </c>
       <c r="P14">
-        <v>155846.94705174401</v>
+        <v>286.671364124474</v>
       </c>
       <c r="Q14">
-        <v>133692.54876465499</v>
+        <v>11.5516745556867</v>
       </c>
       <c r="R14">
-        <v>188.033025620393</v>
+        <v>2.2988422302665299</v>
       </c>
       <c r="S14">
-        <v>919025280961.81396</v>
+        <v>22437.226454235999</v>
       </c>
       <c r="T14">
-        <v>958658.06258635002</v>
+        <v>149.790608698396</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4">
-        <v>30.15</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1662</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>237165</v>
+        <f>H15+L15</f>
+        <v>824364</v>
       </c>
       <c r="H15">
-        <v>47433</v>
+        <v>164873</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>189732</v>
+        <v>659491</v>
       </c>
       <c r="M15">
-        <v>90219.848773733902</v>
+        <v>11.0109965737915</v>
       </c>
       <c r="N15">
-        <v>65.226980794655802</v>
+        <v>2.1333030940239599</v>
       </c>
       <c r="O15">
-        <v>148506114698.01001</v>
+        <v>82070.540656641897</v>
       </c>
       <c r="P15">
-        <v>385364.91108819202</v>
+        <v>286.47956411695702</v>
       </c>
       <c r="Q15">
-        <v>111344.32894983199</v>
+        <v>11.961414263749401</v>
       </c>
       <c r="R15">
-        <v>76.710975247324896</v>
+        <v>2.1147182657385302</v>
       </c>
       <c r="S15">
-        <v>217682322820.34299</v>
+        <v>24078.662557588501</v>
       </c>
       <c r="T15">
-        <v>466564.38228860003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+        <v>155.17300846986399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2652</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="3">
+        <v>846</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H16+L16</f>
+        <v>824364</v>
       </c>
       <c r="H16">
-        <v>587170</v>
+        <v>164873</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L16">
-        <v>2348679</v>
+        <v>659491</v>
       </c>
       <c r="M16">
-        <v>0.122529943597808</v>
+        <v>11.018062301370399</v>
       </c>
       <c r="N16">
-        <v>4.6609687998664703E-2</v>
+        <v>2.2810663434156901</v>
       </c>
       <c r="O16">
-        <v>1.08766782625678</v>
+        <v>82061.721254846198</v>
       </c>
       <c r="P16">
-        <v>1.04291314415764</v>
+        <v>286.46417097928003</v>
       </c>
       <c r="Q16">
-        <v>0.122552466591897</v>
+        <v>11.901832043110799</v>
       </c>
       <c r="R16">
-        <v>4.8374237247639097E-2</v>
+        <v>2.2044701972403802</v>
       </c>
       <c r="S16">
-        <v>0.56111250009447899</v>
+        <v>24081.2938092556</v>
       </c>
       <c r="T16">
-        <v>0.74907442894179699</v>
+        <v>155.18148668335201</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1398</v>
+        <v>75</v>
+      </c>
+      <c r="B17" s="3">
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H17+L17</f>
+        <v>824364</v>
       </c>
       <c r="H17">
-        <v>587170</v>
+        <v>164873</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L17">
-        <v>2348679</v>
+        <v>659491</v>
       </c>
       <c r="M17">
-        <v>3.0340617532645501E-2</v>
+        <v>12.3048398579355</v>
       </c>
       <c r="N17">
-        <v>1.46909780415153E-2</v>
+        <v>2.9322754933726398</v>
       </c>
       <c r="O17">
-        <v>9.16530775164372</v>
+        <v>82305.852720224299</v>
       </c>
       <c r="P17">
-        <v>3.0274259283496399</v>
+        <v>286.88996622437702</v>
       </c>
       <c r="Q17">
-        <v>1.4434187152586E-2</v>
+        <v>10.417396359682501</v>
       </c>
       <c r="R17">
-        <v>1.02487851218073E-2</v>
+        <v>2.1147796663295702</v>
       </c>
       <c r="S17">
-        <v>0.26492351829323402</v>
+        <v>19555.931487314901</v>
       </c>
       <c r="T17">
-        <v>0.51470721608817005</v>
+        <v>139.84252388781701</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4">
-        <v>330</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1554</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H18+L18</f>
+        <v>1037336</v>
       </c>
       <c r="H18">
-        <v>587170</v>
+        <v>207468</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L18">
-        <v>2348679</v>
+        <v>829868</v>
       </c>
       <c r="M18">
-        <v>2.5926282119381999E-2</v>
+        <v>5912.0507165855697</v>
       </c>
       <c r="N18">
-        <v>1.0849701457640601E-2</v>
+        <v>2.06338973823964E+17</v>
       </c>
       <c r="O18">
-        <v>5.7488910430794</v>
+        <v>780707610.53753603</v>
       </c>
       <c r="P18">
-        <v>2.3976845170037202</v>
+        <v>27941.1454764749</v>
       </c>
       <c r="Q18">
-        <v>1.77557822946845E-2</v>
+        <v>5756.2288278066499</v>
       </c>
       <c r="R18">
-        <v>1.0519623654359E-2</v>
+        <v>2.7148270262032301E+17</v>
       </c>
       <c r="S18">
-        <v>9.62359120502909E-3</v>
+        <v>694152141.19776499</v>
       </c>
       <c r="T18">
-        <v>9.8099904204994398E-2</v>
+        <v>26346.767186844099</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="4">
-        <v>852</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3282</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>H19+L19</f>
         <v>1037336</v>
       </c>
       <c r="H19">
@@ -2530,51 +2639,51 @@
         <v>829868</v>
       </c>
       <c r="M19">
-        <v>687.66456746133804</v>
+        <v>6182.7845676440002</v>
       </c>
       <c r="N19">
-        <v>3.26205379374198E+16</v>
+        <v>2.3883914035887398E+17</v>
       </c>
       <c r="O19">
-        <v>129229055.60641401</v>
+        <v>874748688.97130406</v>
       </c>
       <c r="P19">
-        <v>11367.8958302059</v>
+        <v>29576.1506787361</v>
       </c>
       <c r="Q19">
-        <v>618.91901275930604</v>
+        <v>5948.0344746119199</v>
       </c>
       <c r="R19">
-        <v>5.6861185589383504E+16</v>
+        <v>3.1338624109773702E+17</v>
       </c>
       <c r="S19">
-        <v>100400005.554709</v>
+        <v>765296507.67522395</v>
       </c>
       <c r="T19">
-        <v>10019.9803170819</v>
+        <v>27663.992981404899</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="4">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1596</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>H20+L20</f>
         <v>1037336</v>
       </c>
       <c r="H20">
@@ -2593,366 +2702,366 @@
         <v>829868</v>
       </c>
       <c r="M20">
-        <v>1035.73425472177</v>
+        <v>6150.6406943392603</v>
       </c>
       <c r="N20">
-        <v>4.97497560742086E+16</v>
+        <v>2.4133609770067699E+17</v>
       </c>
       <c r="O20">
-        <v>173193465.63316301</v>
+        <v>817864572.04866803</v>
       </c>
       <c r="P20">
-        <v>13160.2988428516</v>
+        <v>28598.331630510598</v>
       </c>
       <c r="Q20">
-        <v>902.66554165565299</v>
+        <v>5908.2380459360702</v>
       </c>
       <c r="R20">
-        <v>6.93209158225692E+16</v>
+        <v>3.4075983010024301E+17</v>
       </c>
       <c r="S20">
-        <v>112180843.851459</v>
+        <v>744083288.91006899</v>
       </c>
       <c r="T20">
-        <v>10591.545866938301</v>
+        <v>27277.890111041699</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="4">
-        <v>378</v>
+        <v>72</v>
+      </c>
+      <c r="B21" s="3">
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>824364</v>
+        <f>H21+L21</f>
+        <v>1037336</v>
       </c>
       <c r="H21">
-        <v>164873</v>
+        <v>207468</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>659491</v>
+        <v>829868</v>
       </c>
       <c r="M21">
-        <v>4.7036112218513901</v>
+        <v>5406.6825164808097</v>
       </c>
       <c r="N21">
-        <v>0.78431679505196406</v>
+        <v>1.7955531854880899E+17</v>
       </c>
       <c r="O21">
-        <v>65258.004197123599</v>
+        <v>710259009.31724596</v>
       </c>
       <c r="P21">
-        <v>255.45646242975201</v>
+        <v>26650.684969006801</v>
       </c>
       <c r="Q21">
-        <v>4.5212131902817898</v>
+        <v>5211.0987177491997</v>
       </c>
       <c r="R21">
-        <v>0.77667114056239495</v>
+        <v>2.1902279931759398E+17</v>
       </c>
       <c r="S21">
-        <v>13995.285069297401</v>
+        <v>642017019.43968403</v>
       </c>
       <c r="T21">
-        <v>118.301669765466</v>
+        <v>25338.054768266698</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4">
-        <v>126</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1398</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>824364</v>
+        <f>H22+L22</f>
+        <v>2935849</v>
       </c>
       <c r="H22">
-        <v>164873</v>
+        <v>587170</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>659491</v>
+        <v>2348679</v>
       </c>
       <c r="M22">
-        <v>5.7051862633288</v>
+        <v>3.0340617532645501E-2</v>
       </c>
       <c r="N22">
-        <v>0.98513645860987797</v>
+        <v>1.46909780415153E-2</v>
       </c>
       <c r="O22">
-        <v>80163.252441853096</v>
+        <v>9.16530775164372</v>
       </c>
       <c r="P22">
-        <v>283.13115766699502</v>
+        <v>3.0274259283496399</v>
       </c>
       <c r="Q22">
-        <v>5.7239543206742001</v>
+        <v>1.4434187152586E-2</v>
       </c>
       <c r="R22">
-        <v>0.96262737666867604</v>
+        <v>1.02487851218073E-2</v>
       </c>
       <c r="S22">
-        <v>7940.5416647493703</v>
+        <v>0.26492351829323402</v>
       </c>
       <c r="T22">
-        <v>89.109717005214193</v>
+        <v>0.51470721608817005</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="4">
-        <v>168</v>
+        <v>66</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5760</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H23+L23</f>
+        <v>2935849</v>
       </c>
       <c r="H23">
-        <v>81366</v>
+        <v>587170</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L23">
-        <v>325463</v>
+        <v>2348679</v>
       </c>
       <c r="M23">
-        <v>7.0735015704105901</v>
+        <v>0.74121413768060496</v>
       </c>
       <c r="N23">
-        <v>1.0787281563046001</v>
+        <v>0.66168667728622199</v>
       </c>
       <c r="O23">
-        <v>156368.61597885101</v>
+        <v>3.0902633780114699</v>
       </c>
       <c r="P23">
-        <v>395.434717720702</v>
+        <v>1.7579144967863101</v>
       </c>
       <c r="Q23">
-        <v>6.2077463892811799</v>
+        <v>0.71687307262760702</v>
       </c>
       <c r="R23">
-        <v>0.97863461511687899</v>
+        <v>0.63569556179667497</v>
       </c>
       <c r="S23">
-        <v>32829.231393518297</v>
+        <v>1.3862407068405</v>
       </c>
       <c r="T23">
-        <v>181.18838647528801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.17738723742042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4">
-        <v>60</v>
+        <v>2652</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H24+L24</f>
+        <v>2935849</v>
       </c>
       <c r="H24">
-        <v>81366</v>
+        <v>587170</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L24">
-        <v>325463</v>
+        <v>2348679</v>
       </c>
       <c r="M24">
-        <v>3.3578273896942199</v>
+        <v>0.122529943597808</v>
       </c>
       <c r="N24">
-        <v>0.383260607350425</v>
+        <v>4.6609687998664703E-2</v>
       </c>
       <c r="O24">
-        <v>83363.635655057704</v>
+        <v>1.08766782625678</v>
       </c>
       <c r="P24">
-        <v>288.72761498522698</v>
+        <v>1.04291314415764</v>
       </c>
       <c r="Q24">
-        <v>2.0195767121911001</v>
+        <v>0.122552466591897</v>
       </c>
       <c r="R24">
-        <v>0.32360207075532299</v>
+        <v>4.8374237247639097E-2</v>
       </c>
       <c r="S24">
-        <v>141.57835896289799</v>
+        <v>0.56111250009447899</v>
       </c>
       <c r="T24">
-        <v>11.8986704703886</v>
+        <v>0.74907442894179699</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4">
-        <v>300</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="3">
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>237165</v>
+        <f>H25+L25</f>
+        <v>2935849</v>
       </c>
       <c r="H25">
-        <v>47433</v>
+        <v>587170</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L25">
-        <v>189732</v>
+        <v>2348679</v>
       </c>
       <c r="M25">
-        <v>1136671.8516844099</v>
+        <v>2.5926282119381999E-2</v>
       </c>
       <c r="N25">
-        <v>1221.0183637596699</v>
+        <v>1.0849701457640601E-2</v>
       </c>
       <c r="O25">
-        <v>4947905781436.3496</v>
+        <v>5.7488910430794</v>
       </c>
       <c r="P25">
-        <v>2224388.8557166299</v>
+        <v>2.3976845170037202</v>
       </c>
       <c r="Q25">
-        <v>1561040.68478877</v>
+        <v>1.77557822946845E-2</v>
       </c>
       <c r="R25">
-        <v>979.43064169683498</v>
+        <v>1.0519623654359E-2</v>
       </c>
       <c r="S25">
-        <v>24021933789462.102</v>
+        <v>9.62359120502909E-3</v>
       </c>
       <c r="T25">
-        <v>4901217.5823423797</v>
+        <v>9.8099904204994398E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="4">
-        <v>24.9</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="3">
+        <v>55.1</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>H26+L26</f>
         <v>237165</v>
       </c>
       <c r="H26">
@@ -2971,477 +3080,477 @@
         <v>189732</v>
       </c>
       <c r="M26">
-        <v>580684.67737845902</v>
+        <v>60558.266532668298</v>
       </c>
       <c r="N26">
-        <v>140.47354472558499</v>
+        <v>115.189019956954</v>
       </c>
       <c r="O26">
-        <v>2244333572200.1899</v>
+        <v>24288270905.349201</v>
       </c>
       <c r="P26">
-        <v>1498110.0000334401</v>
+        <v>155846.94705174401</v>
       </c>
       <c r="Q26">
-        <v>711668.10815142095</v>
+        <v>133692.54876465499</v>
       </c>
       <c r="R26">
-        <v>189.90957874447301</v>
+        <v>188.033025620393</v>
       </c>
       <c r="S26">
-        <v>7359615501442.8799</v>
+        <v>919025280961.81396</v>
       </c>
       <c r="T26">
-        <v>2712861.1283003101</v>
+        <v>958658.06258635002</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5760</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="3">
+        <v>642</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H27+L27</f>
+        <v>237165</v>
       </c>
       <c r="H27">
-        <v>587170</v>
+        <v>47433</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L27">
-        <v>2348679</v>
+        <v>189732</v>
       </c>
       <c r="M27">
-        <v>0.74121413768060496</v>
+        <v>746192.34974620503</v>
       </c>
       <c r="N27">
-        <v>0.66168667728622199</v>
+        <v>526.94953116208706</v>
       </c>
       <c r="O27">
-        <v>3.0902633780114699</v>
+        <v>5310341598292.5</v>
       </c>
       <c r="P27">
-        <v>1.7579144967863101</v>
+        <v>2304417.8436847101</v>
       </c>
       <c r="Q27">
-        <v>0.71687307262760702</v>
+        <v>1410110.0156932599</v>
       </c>
       <c r="R27">
-        <v>0.63569556179667497</v>
+        <v>537.72048056623805</v>
       </c>
       <c r="S27">
-        <v>1.3862407068405</v>
+        <v>58876459617995</v>
       </c>
       <c r="T27">
-        <v>1.17738723742042</v>
+        <v>7673099.7398701301</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2040</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3294</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H28+L28</f>
+        <v>237165</v>
       </c>
       <c r="H28">
-        <v>207468</v>
+        <v>47433</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L28">
-        <v>829868</v>
+        <v>189732</v>
       </c>
       <c r="M28">
-        <v>3477.5110565370301</v>
+        <v>464442.02057973901</v>
       </c>
       <c r="N28">
-        <v>2.5229963061592602E+17</v>
+        <v>653.85927387733602</v>
       </c>
       <c r="O28">
-        <v>105859045.184744</v>
+        <v>2224819160967.4102</v>
       </c>
       <c r="P28">
-        <v>10288.782492828999</v>
+        <v>1491582.7704044399</v>
       </c>
       <c r="Q28">
-        <v>3351.9975950412099</v>
+        <v>1006635.42643956</v>
       </c>
       <c r="R28">
-        <v>3.9681403742501498E+17</v>
+        <v>650.61511824952004</v>
       </c>
       <c r="S28">
-        <v>93813990.969383597</v>
+        <v>31139293745404.5</v>
       </c>
       <c r="T28">
-        <v>9685.7622812757309</v>
+        <v>5580259.2901588799</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="4">
-        <v>6120</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>30.15</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H29+L29</f>
+        <v>237165</v>
       </c>
       <c r="H29">
-        <v>587170</v>
+        <v>47433</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L29">
-        <v>2348679</v>
+        <v>189732</v>
       </c>
       <c r="M29">
-        <v>0.48394214936226998</v>
+        <v>90219.848773733902</v>
       </c>
       <c r="N29">
-        <v>0.32198980651791498</v>
+        <v>65.226980794655802</v>
       </c>
       <c r="O29">
-        <v>18.585816598233801</v>
+        <v>148506114698.01001</v>
       </c>
       <c r="P29">
-        <v>4.3111270682077896</v>
+        <v>385364.91108819202</v>
       </c>
       <c r="Q29">
-        <v>0.39412232689773202</v>
+        <v>111344.32894983199</v>
       </c>
       <c r="R29">
-        <v>0.25464549439664802</v>
+        <v>76.710975247324896</v>
       </c>
       <c r="S29">
-        <v>3.2503664609162701</v>
+        <v>217682322820.34299</v>
       </c>
       <c r="T29">
-        <v>1.8028772728381299</v>
+        <v>466564.38228860003</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="4">
-        <v>264</v>
+        <v>62</v>
+      </c>
+      <c r="B30" s="3">
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2935849</v>
+        <f>H30+L30</f>
+        <v>406829</v>
       </c>
       <c r="H30">
-        <v>587170</v>
+        <v>81366</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L30">
-        <v>2348679</v>
+        <v>325463</v>
       </c>
       <c r="M30">
-        <v>0.39367584850201198</v>
+        <v>7.0735015704105901</v>
       </c>
       <c r="N30">
-        <v>0.22939550467606401</v>
+        <v>1.0787281563046001</v>
       </c>
       <c r="O30">
-        <v>14.9199616740637</v>
+        <v>156368.61597885101</v>
       </c>
       <c r="P30">
-        <v>3.8626366220580102</v>
+        <v>395.434717720702</v>
       </c>
       <c r="Q30">
-        <v>0.34155701193186599</v>
+        <v>6.2077463892811799</v>
       </c>
       <c r="R30">
-        <v>0.20762078245439</v>
+        <v>0.97863461511687899</v>
       </c>
       <c r="S30">
-        <v>2.7231067192282601</v>
+        <v>32829.231393518297</v>
       </c>
       <c r="T30">
-        <v>1.65018384406958</v>
+        <v>181.18838647528801</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="4">
-        <v>3012</v>
+        <v>76</v>
+      </c>
+      <c r="B31" s="3">
+        <v>558</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H31+L31</f>
+        <v>406829</v>
       </c>
       <c r="H31">
-        <v>207468</v>
+        <v>81366</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L31">
-        <v>829868</v>
+        <v>325463</v>
       </c>
       <c r="M31">
-        <v>1922.21242974908</v>
+        <v>5.9423921310165797</v>
       </c>
       <c r="N31">
-        <v>9.7377960620463504E+16</v>
+        <v>1.32752831516603</v>
       </c>
       <c r="O31">
-        <v>38450217.344450898</v>
+        <v>81059.719614388494</v>
       </c>
       <c r="P31">
-        <v>6200.8239246450903</v>
+        <v>284.70988675209099</v>
       </c>
       <c r="Q31">
-        <v>1835.85969029076</v>
+        <v>5.9276671959851397</v>
       </c>
       <c r="R31">
-        <v>1.4554725954102099E+17</v>
+        <v>1.1686649787279599</v>
       </c>
       <c r="S31">
-        <v>46106529.641624101</v>
+        <v>18776.395493301599</v>
       </c>
       <c r="T31">
-        <v>6790.1789108700304</v>
+        <v>137.02698819320801</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1554</v>
+        <v>79</v>
+      </c>
+      <c r="B32" s="3">
+        <v>414</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H32+L32</f>
+        <v>406829</v>
       </c>
       <c r="H32">
-        <v>207468</v>
+        <v>81366</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L32">
-        <v>829868</v>
+        <v>325463</v>
       </c>
       <c r="M32">
-        <v>5912.0507165855697</v>
+        <v>12.533841896346599</v>
       </c>
       <c r="N32">
-        <v>2.06338973823964E+17</v>
+        <v>3.83351454303296</v>
       </c>
       <c r="O32">
-        <v>780707610.53753603</v>
+        <v>130738.041103204</v>
       </c>
       <c r="P32">
-        <v>27941.1454764749</v>
+        <v>361.577157883631</v>
       </c>
       <c r="Q32">
-        <v>5756.2288278066499</v>
+        <v>11.2399032495066</v>
       </c>
       <c r="R32">
-        <v>2.7148270262032301E+17</v>
+        <v>2.77208563661716</v>
       </c>
       <c r="S32">
-        <v>694152141.19776499</v>
+        <v>28770.8251573015</v>
       </c>
       <c r="T32">
-        <v>26346.767186844099</v>
+        <v>169.61964850011199</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="4">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="3">
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>1037336</v>
+        <f>H33+L33</f>
+        <v>406829</v>
       </c>
       <c r="H33">
-        <v>207468</v>
+        <v>81366</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L33">
-        <v>829868</v>
+        <v>325463</v>
       </c>
       <c r="M33">
-        <v>5406.6825164808097</v>
+        <v>3.3578273896942199</v>
       </c>
       <c r="N33">
-        <v>1.7955531854880899E+17</v>
+        <v>0.383260607350425</v>
       </c>
       <c r="O33">
-        <v>710259009.31724596</v>
+        <v>83363.635655057704</v>
       </c>
       <c r="P33">
-        <v>26650.684969006801</v>
+        <v>288.72761498522698</v>
       </c>
       <c r="Q33">
-        <v>5211.0987177491997</v>
+        <v>2.0195767121911001</v>
       </c>
       <c r="R33">
-        <v>2.1902279931759398E+17</v>
+        <v>0.32360207075532299</v>
       </c>
       <c r="S33">
-        <v>642017019.43968403</v>
+        <v>141.57835896289799</v>
       </c>
       <c r="T33">
-        <v>25338.054768266698</v>
+        <v>11.8986704703886</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1116</v>
+        <v>61</v>
+      </c>
+      <c r="B34" s="3">
+        <v>378</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -3453,10 +3562,10 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>H34+L34</f>
         <v>824364</v>
       </c>
       <c r="H34">
@@ -3475,51 +3584,51 @@
         <v>659491</v>
       </c>
       <c r="M34">
-        <v>8.5848399635329304</v>
+        <v>4.7036112218513901</v>
       </c>
       <c r="N34">
-        <v>2.1247897730626999</v>
+        <v>0.78431679505196406</v>
       </c>
       <c r="O34">
-        <v>50035.126671624799</v>
+        <v>65258.004197123599</v>
       </c>
       <c r="P34">
-        <v>223.68532958516701</v>
+        <v>255.45646242975201</v>
       </c>
       <c r="Q34">
-        <v>9.1908355902016901</v>
+        <v>4.5212131902817898</v>
       </c>
       <c r="R34">
-        <v>2.1148784922473198</v>
+        <v>0.77667114056239495</v>
       </c>
       <c r="S34">
-        <v>15763.067225171</v>
+        <v>13995.285069297401</v>
       </c>
       <c r="T34">
-        <v>125.551054257505</v>
+        <v>118.301669765466</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="4">
-        <v>696</v>
+        <v>78</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2718</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>H35+L35</f>
         <v>824364</v>
       </c>
       <c r="H35">
@@ -3538,51 +3647,51 @@
         <v>659491</v>
       </c>
       <c r="M35">
-        <v>12.409889107821501</v>
+        <v>11.981070392043099</v>
       </c>
       <c r="N35">
-        <v>3.0299000260789399</v>
+        <v>3.5648791820991801</v>
       </c>
       <c r="O35">
-        <v>82180.471008986802</v>
+        <v>68046.2706267553</v>
       </c>
       <c r="P35">
-        <v>286.671364124474</v>
+        <v>260.85680099770298</v>
       </c>
       <c r="Q35">
-        <v>11.5516745556867</v>
+        <v>12.615895769183799</v>
       </c>
       <c r="R35">
-        <v>2.2988422302665299</v>
+        <v>3.4517943228109398</v>
       </c>
       <c r="S35">
-        <v>22437.226454235999</v>
+        <v>19193.421050229099</v>
       </c>
       <c r="T35">
-        <v>149.790608698396</v>
+        <v>138.54032283140199</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1116</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>H36+L36</f>
         <v>824364</v>
       </c>
       <c r="H36">
@@ -3601,3381 +3710,5288 @@
         <v>659491</v>
       </c>
       <c r="M36">
-        <v>12.3048398579355</v>
+        <v>8.5848399635329304</v>
       </c>
       <c r="N36">
-        <v>2.9322754933726398</v>
+        <v>2.1247897730626999</v>
       </c>
       <c r="O36">
-        <v>82305.852720224299</v>
+        <v>50035.126671624799</v>
       </c>
       <c r="P36">
-        <v>286.88996622437702</v>
+        <v>223.68532958516701</v>
       </c>
       <c r="Q36">
-        <v>10.417396359682501</v>
+        <v>9.1908355902016901</v>
       </c>
       <c r="R36">
-        <v>2.1147796663295702</v>
+        <v>2.1148784922473198</v>
       </c>
       <c r="S36">
-        <v>19555.931487314901</v>
+        <v>15763.067225171</v>
       </c>
       <c r="T36">
-        <v>139.84252388781701</v>
+        <v>125.551054257505</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="4">
-        <v>558</v>
+        <v>60</v>
+      </c>
+      <c r="B37" s="3">
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H37+L37</f>
+        <v>824364</v>
       </c>
       <c r="H37">
-        <v>81366</v>
+        <v>164873</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L37">
-        <v>325463</v>
+        <v>659491</v>
       </c>
       <c r="M37">
-        <v>10.7992881680628</v>
+        <v>5.7051862633288</v>
       </c>
       <c r="N37">
-        <v>2.3368575682124</v>
+        <v>0.98513645860987797</v>
       </c>
       <c r="O37">
-        <v>164206.92837942799</v>
+        <v>80163.252441853096</v>
       </c>
       <c r="P37">
-        <v>405.22454069247601</v>
+        <v>283.13115766699502</v>
       </c>
       <c r="Q37">
-        <v>9.5930431124829507</v>
+        <v>5.7239543206742001</v>
       </c>
       <c r="R37">
-        <v>1.9112789113836199</v>
+        <v>0.96262737666867604</v>
       </c>
       <c r="S37">
-        <v>35639.445641358201</v>
+        <v>7940.5416647493703</v>
       </c>
       <c r="T37">
-        <v>188.78412444206799</v>
+        <v>89.109717005214193</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="4">
-        <v>57.7</v>
+        <v>59</v>
+      </c>
+      <c r="B38" s="3">
+        <v>852</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H38+L38</f>
+        <v>1037336</v>
       </c>
       <c r="H38">
-        <v>81366</v>
+        <v>207468</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L38">
-        <v>325463</v>
+        <v>829868</v>
       </c>
       <c r="M38">
-        <v>12.481587667168499</v>
+        <v>687.66456746133804</v>
       </c>
       <c r="N38">
-        <v>2.9586074609036102</v>
+        <v>3.26205379374198E+16</v>
       </c>
       <c r="O38">
-        <v>164819.31693445801</v>
+        <v>129229055.60641401</v>
       </c>
       <c r="P38">
-        <v>405.979453832898</v>
+        <v>11367.8958302059</v>
       </c>
       <c r="Q38">
-        <v>10.423768261772601</v>
+        <v>618.91901275930604</v>
       </c>
       <c r="R38">
-        <v>2.0854112989341198</v>
+        <v>5.6861185589383504E+16</v>
       </c>
       <c r="S38">
-        <v>35790.719156984604</v>
+        <v>100400005.554709</v>
       </c>
       <c r="T38">
-        <v>189.184352304794</v>
+        <v>10019.9803170819</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2718</v>
+        <v>70</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3012</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>25</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>824364</v>
+        <f>H39+L39</f>
+        <v>1037336</v>
       </c>
       <c r="H39">
-        <v>164873</v>
+        <v>207468</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L39">
-        <v>659491</v>
+        <v>829868</v>
       </c>
       <c r="M39">
-        <v>11.981070392043099</v>
+        <v>1922.21242974908</v>
       </c>
       <c r="N39">
-        <v>3.5648791820991801</v>
+        <v>9.7377960620463504E+16</v>
       </c>
       <c r="O39">
-        <v>68046.2706267553</v>
+        <v>38450217.344450898</v>
       </c>
       <c r="P39">
-        <v>260.85680099770298</v>
+        <v>6200.8239246450903</v>
       </c>
       <c r="Q39">
-        <v>12.615895769183799</v>
+        <v>1835.85969029076</v>
       </c>
       <c r="R39">
-        <v>3.4517943228109398</v>
+        <v>1.4554725954102099E+17</v>
       </c>
       <c r="S39">
-        <v>19193.421050229099</v>
+        <v>46106529.641624101</v>
       </c>
       <c r="T39">
-        <v>138.54032283140199</v>
+        <v>6790.1789108700304</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="4">
-        <v>414</v>
+        <v>67</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2040</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H40+L40</f>
+        <v>1037336</v>
       </c>
       <c r="H40">
-        <v>81366</v>
+        <v>207468</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L40">
-        <v>325463</v>
+        <v>829868</v>
       </c>
       <c r="M40">
-        <v>12.533841896346599</v>
+        <v>3477.5110565370301</v>
       </c>
       <c r="N40">
-        <v>3.83351454303296</v>
+        <v>2.5229963061592602E+17</v>
       </c>
       <c r="O40">
-        <v>130738.041103204</v>
+        <v>105859045.184744</v>
       </c>
       <c r="P40">
-        <v>361.577157883631</v>
+        <v>10288.782492828999</v>
       </c>
       <c r="Q40">
-        <v>11.2399032495066</v>
+        <v>3351.9975950412099</v>
       </c>
       <c r="R40">
-        <v>2.77208563661716</v>
+        <v>3.9681403742501498E+17</v>
       </c>
       <c r="S40">
-        <v>28770.8251573015</v>
+        <v>93813990.969383597</v>
       </c>
       <c r="T40">
-        <v>169.61964850011199</v>
+        <v>9685.7622812757309</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="4">
-        <v>558</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="3">
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>406829</v>
+        <f>H41+L41</f>
+        <v>1037336</v>
       </c>
       <c r="H41">
-        <v>81366</v>
+        <v>207468</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L41">
-        <v>325463</v>
+        <v>829868</v>
       </c>
       <c r="M41">
-        <v>5.9423921310165797</v>
+        <v>1035.73425472177</v>
       </c>
       <c r="N41">
-        <v>1.32752831516603</v>
+        <v>4.97497560742086E+16</v>
       </c>
       <c r="O41">
-        <v>81059.719614388494</v>
+        <v>173193465.63316301</v>
       </c>
       <c r="P41">
-        <v>284.70988675209099</v>
+        <v>13160.2988428516</v>
       </c>
       <c r="Q41">
-        <v>5.9276671959851397</v>
+        <v>902.66554165565299</v>
       </c>
       <c r="R41">
-        <v>1.1686649787279599</v>
+        <v>6.93209158225692E+16</v>
       </c>
       <c r="S41">
-        <v>18776.395493301599</v>
+        <v>112180843.851459</v>
       </c>
       <c r="T41">
-        <v>137.02698819320801</v>
+        <v>10591.545866938301</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="4"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="4"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="4"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="4"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="4"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="4"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="4"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="4"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="4"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="4"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="4"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="4"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="4"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="4"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="4"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="4"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="4"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="4"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="4"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="4"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="4"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="4"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="4"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="4"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="4"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="4"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="4"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="4"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="4"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="4"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="4"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="4"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="4"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="4"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="4"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="4"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="4"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="4"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="4"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="4"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="4"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="4"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="4"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="4"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="4"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="4"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="4"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="4"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="4"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="4"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="4"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="4"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="4"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="4"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="4"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="4"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="4"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="4"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="4"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="4"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="4"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="4"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="4"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="4"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="4"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="4"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="4"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="4"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="4"/>
+      <c r="B197" s="3"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="4"/>
+      <c r="B198" s="3"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="4"/>
+      <c r="B199" s="3"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="4"/>
+      <c r="B200" s="3"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="4"/>
+      <c r="B201" s="3"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="4"/>
+      <c r="B202" s="3"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="4"/>
+      <c r="B203" s="3"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="4"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="4"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="4"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="4"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="4"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="4"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="4"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="4"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="4"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="4"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="4"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="4"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="4"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="4"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="4"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="4"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="4"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="4"/>
+      <c r="B221" s="3"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="4"/>
+      <c r="B222" s="3"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="4"/>
+      <c r="B223" s="3"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="4"/>
+      <c r="B224" s="3"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="4"/>
+      <c r="B225" s="3"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="4"/>
+      <c r="B226" s="3"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="4"/>
+      <c r="B227" s="3"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="4"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="4"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="4"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="4"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="4"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="4"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="4"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="4"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="4"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="4"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="4"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" s="4"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="4"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="4"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="4"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="4"/>
+      <c r="B261" s="3"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" s="4"/>
+      <c r="B262" s="3"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="4"/>
+      <c r="B263" s="3"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="4"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="4"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="4"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="4"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="4"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" s="4"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="4"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B271" s="4"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B272" s="4"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="4"/>
+      <c r="B273" s="3"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="4"/>
+      <c r="B274" s="3"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B275" s="4"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="4"/>
+      <c r="B276" s="3"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="4"/>
+      <c r="B277" s="3"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="4"/>
+      <c r="B278" s="3"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" s="4"/>
+      <c r="B279" s="3"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="4"/>
+      <c r="B280" s="3"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" s="4"/>
+      <c r="B281" s="3"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="4"/>
+      <c r="B282" s="3"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" s="4"/>
+      <c r="B283" s="3"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B284" s="4"/>
+      <c r="B284" s="3"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B285" s="4"/>
+      <c r="B285" s="3"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B286" s="4"/>
+      <c r="B286" s="3"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B287" s="4"/>
+      <c r="B287" s="3"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="4"/>
+      <c r="B288" s="3"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" s="4"/>
+      <c r="B289" s="3"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="4"/>
+      <c r="B290" s="3"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="4"/>
+      <c r="B291" s="3"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="4"/>
+      <c r="B292" s="3"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="4"/>
+      <c r="B293" s="3"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="4"/>
+      <c r="B294" s="3"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="4"/>
+      <c r="B295" s="3"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B296" s="4"/>
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="4"/>
+      <c r="B297" s="3"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" s="4"/>
+      <c r="B298" s="3"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="4"/>
+      <c r="B299" s="3"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="4"/>
+      <c r="B300" s="3"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="4"/>
+      <c r="B301" s="3"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="4"/>
+      <c r="B302" s="3"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="4"/>
+      <c r="B303" s="3"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="4"/>
+      <c r="B304" s="3"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B305" s="4"/>
+      <c r="B305" s="3"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B306" s="4"/>
+      <c r="B306" s="3"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B307" s="4"/>
+      <c r="B307" s="3"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" s="4"/>
+      <c r="B308" s="3"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B309" s="4"/>
+      <c r="B309" s="3"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B310" s="4"/>
+      <c r="B310" s="3"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B311" s="4"/>
+      <c r="B311" s="3"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B312" s="4"/>
+      <c r="B312" s="3"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="4"/>
+      <c r="B313" s="3"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B314" s="4"/>
+      <c r="B314" s="3"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B315" s="4"/>
+      <c r="B315" s="3"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B316" s="4"/>
+      <c r="B316" s="3"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B317" s="4"/>
+      <c r="B317" s="3"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B318" s="4"/>
+      <c r="B318" s="3"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B319" s="4"/>
+      <c r="B319" s="3"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B320" s="4"/>
+      <c r="B320" s="3"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B321" s="4"/>
+      <c r="B321" s="3"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B322" s="4"/>
+      <c r="B322" s="3"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" s="4"/>
+      <c r="B323" s="3"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B324" s="4"/>
+      <c r="B324" s="3"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B325" s="4"/>
+      <c r="B325" s="3"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B326" s="4"/>
+      <c r="B326" s="3"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B327" s="4"/>
+      <c r="B327" s="3"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B328" s="4"/>
+      <c r="B328" s="3"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B329" s="4"/>
+      <c r="B329" s="3"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B330" s="4"/>
+      <c r="B330" s="3"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B331" s="4"/>
+      <c r="B331" s="3"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B332" s="4"/>
+      <c r="B332" s="3"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B333" s="4"/>
+      <c r="B333" s="3"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B334" s="4"/>
+      <c r="B334" s="3"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B335" s="4"/>
+      <c r="B335" s="3"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B336" s="4"/>
+      <c r="B336" s="3"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B337" s="4"/>
+      <c r="B337" s="3"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B338" s="4"/>
+      <c r="B338" s="3"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B339" s="4"/>
+      <c r="B339" s="3"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B340" s="4"/>
+      <c r="B340" s="3"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B341" s="4"/>
+      <c r="B341" s="3"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B342" s="4"/>
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B343" s="4"/>
+      <c r="B343" s="3"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B344" s="4"/>
+      <c r="B344" s="3"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B345" s="4"/>
+      <c r="B345" s="3"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="4"/>
+      <c r="B346" s="3"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B347" s="4"/>
+      <c r="B347" s="3"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" s="4"/>
+      <c r="B348" s="3"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B349" s="4"/>
+      <c r="B349" s="3"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B350" s="4"/>
+      <c r="B350" s="3"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B351" s="4"/>
+      <c r="B351" s="3"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B352" s="4"/>
+      <c r="B352" s="3"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B353" s="4"/>
+      <c r="B353" s="3"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B354" s="4"/>
+      <c r="B354" s="3"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B355" s="4"/>
+      <c r="B355" s="3"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B356" s="4"/>
+      <c r="B356" s="3"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B357" s="4"/>
+      <c r="B357" s="3"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B358" s="4"/>
+      <c r="B358" s="3"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B359" s="4"/>
+      <c r="B359" s="3"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B360" s="4"/>
+      <c r="B360" s="3"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B361" s="4"/>
+      <c r="B361" s="3"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B362" s="4"/>
+      <c r="B362" s="3"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B363" s="4"/>
+      <c r="B363" s="3"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B364" s="4"/>
+      <c r="B364" s="3"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B365" s="4"/>
+      <c r="B365" s="3"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B366" s="4"/>
+      <c r="B366" s="3"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B367" s="4"/>
+      <c r="B367" s="3"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B368" s="4"/>
+      <c r="B368" s="3"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B369" s="4"/>
+      <c r="B369" s="3"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B370" s="4"/>
+      <c r="B370" s="3"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B371" s="4"/>
+      <c r="B371" s="3"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B372" s="4"/>
+      <c r="B372" s="3"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B373" s="4"/>
+      <c r="B373" s="3"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B374" s="4"/>
+      <c r="B374" s="3"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B375" s="4"/>
+      <c r="B375" s="3"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B376" s="4"/>
+      <c r="B376" s="3"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B377" s="4"/>
+      <c r="B377" s="3"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B378" s="4"/>
+      <c r="B378" s="3"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B379" s="4"/>
+      <c r="B379" s="3"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B380" s="4"/>
+      <c r="B380" s="3"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B381" s="4"/>
+      <c r="B381" s="3"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B382" s="4"/>
+      <c r="B382" s="3"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B383" s="4"/>
+      <c r="B383" s="3"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B384" s="4"/>
+      <c r="B384" s="3"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B385" s="4"/>
+      <c r="B385" s="3"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="4"/>
+      <c r="B386" s="3"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B387" s="4"/>
+      <c r="B387" s="3"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B388" s="4"/>
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B389" s="4"/>
+      <c r="B389" s="3"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B390" s="4"/>
+      <c r="B390" s="3"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B391" s="4"/>
+      <c r="B391" s="3"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B392" s="4"/>
+      <c r="B392" s="3"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B393" s="4"/>
+      <c r="B393" s="3"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B394" s="4"/>
+      <c r="B394" s="3"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B395" s="4"/>
+      <c r="B395" s="3"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B396" s="4"/>
+      <c r="B396" s="3"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B397" s="4"/>
+      <c r="B397" s="3"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B398" s="4"/>
+      <c r="B398" s="3"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B399" s="4"/>
+      <c r="B399" s="3"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B400" s="4"/>
+      <c r="B400" s="3"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B401" s="4"/>
+      <c r="B401" s="3"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B402" s="4"/>
+      <c r="B402" s="3"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B403" s="4"/>
+      <c r="B403" s="3"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B404" s="4"/>
+      <c r="B404" s="3"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B405" s="4"/>
+      <c r="B405" s="3"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B406" s="4"/>
+      <c r="B406" s="3"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B407" s="4"/>
+      <c r="B407" s="3"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B408" s="4"/>
+      <c r="B408" s="3"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="4"/>
+      <c r="B409" s="3"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B410" s="4"/>
+      <c r="B410" s="3"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B411" s="4"/>
+      <c r="B411" s="3"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B412" s="4"/>
+      <c r="B412" s="3"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B413" s="4"/>
+      <c r="B413" s="3"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B414" s="4"/>
+      <c r="B414" s="3"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B415" s="4"/>
+      <c r="B415" s="3"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B416" s="4"/>
+      <c r="B416" s="3"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B417" s="4"/>
+      <c r="B417" s="3"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B418" s="4"/>
+      <c r="B418" s="3"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B419" s="4"/>
+      <c r="B419" s="3"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B420" s="4"/>
+      <c r="B420" s="3"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B421" s="4"/>
+      <c r="B421" s="3"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B422" s="4"/>
+      <c r="B422" s="3"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B423" s="4"/>
+      <c r="B423" s="3"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B424" s="4"/>
+      <c r="B424" s="3"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B425" s="4"/>
+      <c r="B425" s="3"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B426" s="4"/>
+      <c r="B426" s="3"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B427" s="4"/>
+      <c r="B427" s="3"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B428" s="4"/>
+      <c r="B428" s="3"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B429" s="4"/>
+      <c r="B429" s="3"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B430" s="4"/>
+      <c r="B430" s="3"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B431" s="4"/>
+      <c r="B431" s="3"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B432" s="4"/>
+      <c r="B432" s="3"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B433" s="4"/>
+      <c r="B433" s="3"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B434" s="4"/>
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B435" s="4"/>
+      <c r="B435" s="3"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B436" s="4"/>
+      <c r="B436" s="3"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B437" s="4"/>
+      <c r="B437" s="3"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="4"/>
+      <c r="B438" s="3"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B439" s="4"/>
+      <c r="B439" s="3"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B440" s="4"/>
+      <c r="B440" s="3"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B441" s="4"/>
+      <c r="B441" s="3"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B442" s="4"/>
+      <c r="B442" s="3"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B443" s="4"/>
+      <c r="B443" s="3"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B444" s="4"/>
+      <c r="B444" s="3"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B445" s="4"/>
+      <c r="B445" s="3"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B446" s="4"/>
+      <c r="B446" s="3"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B447" s="4"/>
+      <c r="B447" s="3"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B448" s="4"/>
+      <c r="B448" s="3"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B449" s="4"/>
+      <c r="B449" s="3"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B450" s="4"/>
+      <c r="B450" s="3"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B451" s="4"/>
+      <c r="B451" s="3"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B452" s="4"/>
+      <c r="B452" s="3"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B453" s="4"/>
+      <c r="B453" s="3"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B454" s="4"/>
+      <c r="B454" s="3"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B455" s="4"/>
+      <c r="B455" s="3"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B456" s="4"/>
+      <c r="B456" s="3"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B457" s="4"/>
+      <c r="B457" s="3"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B458" s="4"/>
+      <c r="B458" s="3"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B459" s="4"/>
+      <c r="B459" s="3"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B460" s="4"/>
+      <c r="B460" s="3"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B461" s="4"/>
+      <c r="B461" s="3"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B462" s="4"/>
+      <c r="B462" s="3"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B463" s="4"/>
+      <c r="B463" s="3"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B464" s="4"/>
+      <c r="B464" s="3"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="4"/>
+      <c r="B465" s="3"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B466" s="4"/>
+      <c r="B466" s="3"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B467" s="4"/>
+      <c r="B467" s="3"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B468" s="4"/>
+      <c r="B468" s="3"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="4"/>
+      <c r="B469" s="3"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B470" s="4"/>
+      <c r="B470" s="3"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B471" s="4"/>
+      <c r="B471" s="3"/>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B472" s="4"/>
+      <c r="B472" s="3"/>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B473" s="4"/>
+      <c r="B473" s="3"/>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B474" s="4"/>
+      <c r="B474" s="3"/>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B475" s="4"/>
+      <c r="B475" s="3"/>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B476" s="4"/>
+      <c r="B476" s="3"/>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B477" s="4"/>
+      <c r="B477" s="3"/>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B478" s="4"/>
+      <c r="B478" s="3"/>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B479" s="4"/>
+      <c r="B479" s="3"/>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B480" s="4"/>
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B481" s="4"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B482" s="4"/>
+      <c r="B482" s="3"/>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B483" s="4"/>
+      <c r="B483" s="3"/>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B484" s="4"/>
+      <c r="B484" s="3"/>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B485" s="4"/>
+      <c r="B485" s="3"/>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B486" s="4"/>
+      <c r="B486" s="3"/>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B487" s="4"/>
+      <c r="B487" s="3"/>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B488" s="4"/>
+      <c r="B488" s="3"/>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B489" s="4"/>
+      <c r="B489" s="3"/>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B490" s="4"/>
+      <c r="B490" s="3"/>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B491" s="4"/>
+      <c r="B491" s="3"/>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B492" s="4"/>
+      <c r="B492" s="3"/>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B493" s="4"/>
+      <c r="B493" s="3"/>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B494" s="4"/>
+      <c r="B494" s="3"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B495" s="4"/>
+      <c r="B495" s="3"/>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B496" s="4"/>
+      <c r="B496" s="3"/>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B497" s="4"/>
+      <c r="B497" s="3"/>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B498" s="4"/>
+      <c r="B498" s="3"/>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B499" s="4"/>
+      <c r="B499" s="3"/>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B500" s="4"/>
+      <c r="B500" s="3"/>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B501" s="4"/>
+      <c r="B501" s="3"/>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B502" s="4"/>
+      <c r="B502" s="3"/>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B503" s="4"/>
+      <c r="B503" s="3"/>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B504" s="4"/>
+      <c r="B504" s="3"/>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B505" s="4"/>
+      <c r="B505" s="3"/>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B506" s="4"/>
+      <c r="B506" s="3"/>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B507" s="4"/>
+      <c r="B507" s="3"/>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B508" s="4"/>
+      <c r="B508" s="3"/>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B509" s="4"/>
+      <c r="B509" s="3"/>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B510" s="4"/>
+      <c r="B510" s="3"/>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B511" s="4"/>
+      <c r="B511" s="3"/>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B512" s="4"/>
+      <c r="B512" s="3"/>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B513" s="4"/>
+      <c r="B513" s="3"/>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B514" s="4"/>
+      <c r="B514" s="3"/>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B515" s="4"/>
+      <c r="B515" s="3"/>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B516" s="4"/>
+      <c r="B516" s="3"/>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B517" s="4"/>
+      <c r="B517" s="3"/>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B518" s="4"/>
+      <c r="B518" s="3"/>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B519" s="4"/>
+      <c r="B519" s="3"/>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B520" s="4"/>
+      <c r="B520" s="3"/>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B521" s="4"/>
+      <c r="B521" s="3"/>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B522" s="4"/>
+      <c r="B522" s="3"/>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B523" s="4"/>
+      <c r="B523" s="3"/>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B524" s="4"/>
+      <c r="B524" s="3"/>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B525" s="4"/>
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B526" s="4"/>
+      <c r="B526" s="3"/>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B527" s="4"/>
+      <c r="B527" s="3"/>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B528" s="4"/>
+      <c r="B528" s="3"/>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B529" s="4"/>
+      <c r="B529" s="3"/>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B530" s="4"/>
+      <c r="B530" s="3"/>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B531" s="4"/>
+      <c r="B531" s="3"/>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B532" s="4"/>
+      <c r="B532" s="3"/>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B533" s="4"/>
+      <c r="B533" s="3"/>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B534" s="4"/>
+      <c r="B534" s="3"/>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B535" s="4"/>
+      <c r="B535" s="3"/>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B536" s="4"/>
+      <c r="B536" s="3"/>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B537" s="4"/>
+      <c r="B537" s="3"/>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B538" s="4"/>
+      <c r="B538" s="3"/>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B539" s="4"/>
+      <c r="B539" s="3"/>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B540" s="4"/>
+      <c r="B540" s="3"/>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B541" s="4"/>
+      <c r="B541" s="3"/>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B542" s="4"/>
+      <c r="B542" s="3"/>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B543" s="4"/>
+      <c r="B543" s="3"/>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B544" s="4"/>
+      <c r="B544" s="3"/>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B545" s="4"/>
+      <c r="B545" s="3"/>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B546" s="4"/>
+      <c r="B546" s="3"/>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B547" s="4"/>
+      <c r="B547" s="3"/>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B548" s="4"/>
+      <c r="B548" s="3"/>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B549" s="4"/>
+      <c r="B549" s="3"/>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B550" s="4"/>
+      <c r="B550" s="3"/>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B551" s="4"/>
+      <c r="B551" s="3"/>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B552" s="4"/>
+      <c r="B552" s="3"/>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B553" s="4"/>
+      <c r="B553" s="3"/>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B554" s="4"/>
+      <c r="B554" s="3"/>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B555" s="4"/>
+      <c r="B555" s="3"/>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B556" s="4"/>
+      <c r="B556" s="3"/>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B557" s="4"/>
+      <c r="B557" s="3"/>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B558" s="4"/>
+      <c r="B558" s="3"/>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B559" s="4"/>
+      <c r="B559" s="3"/>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B560" s="4"/>
+      <c r="B560" s="3"/>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B561" s="4"/>
+      <c r="B561" s="3"/>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B562" s="4"/>
+      <c r="B562" s="3"/>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B563" s="4"/>
+      <c r="B563" s="3"/>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B564" s="4"/>
+      <c r="B564" s="3"/>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B565" s="4"/>
+      <c r="B565" s="3"/>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B566" s="4"/>
+      <c r="B566" s="3"/>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B567" s="4"/>
+      <c r="B567" s="3"/>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B568" s="4"/>
+      <c r="B568" s="3"/>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B569" s="4"/>
+      <c r="B569" s="3"/>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B570" s="4"/>
+      <c r="B570" s="3"/>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B571" s="4"/>
+      <c r="B571" s="3"/>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B572" s="4"/>
+      <c r="B572" s="3"/>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B573" s="4"/>
+      <c r="B573" s="3"/>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B574" s="4"/>
+      <c r="B574" s="3"/>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B575" s="4"/>
+      <c r="B575" s="3"/>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B576" s="4"/>
+      <c r="B576" s="3"/>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B577" s="4"/>
+      <c r="B577" s="3"/>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B578" s="4"/>
+      <c r="B578" s="3"/>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B579" s="4"/>
+      <c r="B579" s="3"/>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B580" s="4"/>
+      <c r="B580" s="3"/>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B581" s="4"/>
+      <c r="B581" s="3"/>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B582" s="4"/>
+      <c r="B582" s="3"/>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B583" s="4"/>
+      <c r="B583" s="3"/>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B584" s="4"/>
+      <c r="B584" s="3"/>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B585" s="4"/>
+      <c r="B585" s="3"/>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B586" s="4"/>
+      <c r="B586" s="3"/>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B587" s="4"/>
+      <c r="B587" s="3"/>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B588" s="4"/>
+      <c r="B588" s="3"/>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B589" s="4"/>
+      <c r="B589" s="3"/>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B590" s="4"/>
+      <c r="B590" s="3"/>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B591" s="4"/>
+      <c r="B591" s="3"/>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B592" s="4"/>
+      <c r="B592" s="3"/>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B593" s="4"/>
+      <c r="B593" s="3"/>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B594" s="4"/>
+      <c r="B594" s="3"/>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B595" s="4"/>
+      <c r="B595" s="3"/>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B596" s="4"/>
+      <c r="B596" s="3"/>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B597" s="4"/>
+      <c r="B597" s="3"/>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B598" s="4"/>
+      <c r="B598" s="3"/>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B599" s="4"/>
+      <c r="B599" s="3"/>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B600" s="4"/>
+      <c r="B600" s="3"/>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B601" s="4"/>
+      <c r="B601" s="3"/>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B602" s="4"/>
+      <c r="B602" s="3"/>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B603" s="4"/>
+      <c r="B603" s="3"/>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B604" s="4"/>
+      <c r="B604" s="3"/>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B605" s="4"/>
+      <c r="B605" s="3"/>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B606" s="4"/>
+      <c r="B606" s="3"/>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B607" s="4"/>
+      <c r="B607" s="3"/>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B608" s="4"/>
+      <c r="B608" s="3"/>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B609" s="4"/>
+      <c r="B609" s="3"/>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B610" s="4"/>
+      <c r="B610" s="3"/>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B611" s="4"/>
+      <c r="B611" s="3"/>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B612" s="4"/>
+      <c r="B612" s="3"/>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B613" s="4"/>
+      <c r="B613" s="3"/>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B614" s="4"/>
+      <c r="B614" s="3"/>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B615" s="4"/>
+      <c r="B615" s="3"/>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B616" s="4"/>
+      <c r="B616" s="3"/>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B617" s="4"/>
+      <c r="B617" s="3"/>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B618" s="4"/>
+      <c r="B618" s="3"/>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B619" s="4"/>
+      <c r="B619" s="3"/>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B620" s="4"/>
+      <c r="B620" s="3"/>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B621" s="4"/>
+      <c r="B621" s="3"/>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B622" s="4"/>
+      <c r="B622" s="3"/>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B623" s="4"/>
+      <c r="B623" s="3"/>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B624" s="4"/>
+      <c r="B624" s="3"/>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B625" s="4"/>
+      <c r="B625" s="3"/>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B626" s="4"/>
+      <c r="B626" s="3"/>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B627" s="4"/>
+      <c r="B627" s="3"/>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B628" s="4"/>
+      <c r="B628" s="3"/>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B629" s="4"/>
+      <c r="B629" s="3"/>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B630" s="4"/>
+      <c r="B630" s="3"/>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B631" s="4"/>
+      <c r="B631" s="3"/>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B632" s="4"/>
+      <c r="B632" s="3"/>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B633" s="4"/>
+      <c r="B633" s="3"/>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B634" s="4"/>
+      <c r="B634" s="3"/>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B635" s="4"/>
+      <c r="B635" s="3"/>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B636" s="4"/>
+      <c r="B636" s="3"/>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B637" s="4"/>
+      <c r="B637" s="3"/>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B638" s="4"/>
+      <c r="B638" s="3"/>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B639" s="4"/>
+      <c r="B639" s="3"/>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B640" s="4"/>
+      <c r="B640" s="3"/>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B641" s="4"/>
+      <c r="B641" s="3"/>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B642" s="4"/>
+      <c r="B642" s="3"/>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B643" s="4"/>
+      <c r="B643" s="3"/>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B644" s="4"/>
+      <c r="B644" s="3"/>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B645" s="4"/>
+      <c r="B645" s="3"/>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B646" s="4"/>
+      <c r="B646" s="3"/>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B647" s="4"/>
+      <c r="B647" s="3"/>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B648" s="4"/>
+      <c r="B648" s="3"/>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B649" s="4"/>
+      <c r="B649" s="3"/>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B650" s="4"/>
+      <c r="B650" s="3"/>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B651" s="4"/>
+      <c r="B651" s="3"/>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B652" s="4"/>
+      <c r="B652" s="3"/>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B653" s="4"/>
+      <c r="B653" s="3"/>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B654" s="4"/>
+      <c r="B654" s="3"/>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B655" s="4"/>
+      <c r="B655" s="3"/>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B656" s="4"/>
+      <c r="B656" s="3"/>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B657" s="4"/>
+      <c r="B657" s="3"/>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B658" s="4"/>
+      <c r="B658" s="3"/>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B659" s="4"/>
+      <c r="B659" s="3"/>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B660" s="4"/>
+      <c r="B660" s="3"/>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B661" s="4"/>
+      <c r="B661" s="3"/>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B662" s="4"/>
+      <c r="B662" s="3"/>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B663" s="4"/>
+      <c r="B663" s="3"/>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B664" s="4"/>
+      <c r="B664" s="3"/>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B665" s="4"/>
+      <c r="B665" s="3"/>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B666" s="4"/>
+      <c r="B666" s="3"/>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B667" s="4"/>
+      <c r="B667" s="3"/>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B668" s="4"/>
+      <c r="B668" s="3"/>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B669" s="4"/>
+      <c r="B669" s="3"/>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B670" s="4"/>
+      <c r="B670" s="3"/>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B671" s="4"/>
+      <c r="B671" s="3"/>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B672" s="4"/>
+      <c r="B672" s="3"/>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B673" s="4"/>
+      <c r="B673" s="3"/>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B674" s="4"/>
+      <c r="B674" s="3"/>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B675" s="4"/>
+      <c r="B675" s="3"/>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B676" s="4"/>
+      <c r="B676" s="3"/>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B677" s="4"/>
+      <c r="B677" s="3"/>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B678" s="4"/>
+      <c r="B678" s="3"/>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B679" s="4"/>
+      <c r="B679" s="3"/>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B680" s="4"/>
+      <c r="B680" s="3"/>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B681" s="4"/>
+      <c r="B681" s="3"/>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B682" s="4"/>
+      <c r="B682" s="3"/>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B683" s="4"/>
+      <c r="B683" s="3"/>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B684" s="4"/>
+      <c r="B684" s="3"/>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B685" s="4"/>
+      <c r="B685" s="3"/>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B686" s="4"/>
+      <c r="B686" s="3"/>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B687" s="4"/>
+      <c r="B687" s="3"/>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B688" s="4"/>
+      <c r="B688" s="3"/>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B689" s="4"/>
+      <c r="B689" s="3"/>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B690" s="4"/>
+      <c r="B690" s="3"/>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B691" s="4"/>
+      <c r="B691" s="3"/>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B692" s="4"/>
+      <c r="B692" s="3"/>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B693" s="4"/>
+      <c r="B693" s="3"/>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B694" s="4"/>
+      <c r="B694" s="3"/>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B695" s="4"/>
+      <c r="B695" s="3"/>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B696" s="4"/>
+      <c r="B696" s="3"/>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B697" s="4"/>
+      <c r="B697" s="3"/>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B698" s="4"/>
+      <c r="B698" s="3"/>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B699" s="4"/>
+      <c r="B699" s="3"/>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B700" s="4"/>
+      <c r="B700" s="3"/>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B701" s="4"/>
+      <c r="B701" s="3"/>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B702" s="4"/>
+      <c r="B702" s="3"/>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B703" s="4"/>
+      <c r="B703" s="3"/>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B704" s="4"/>
+      <c r="B704" s="3"/>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B705" s="4"/>
+      <c r="B705" s="3"/>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B706" s="4"/>
+      <c r="B706" s="3"/>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B707" s="4"/>
+      <c r="B707" s="3"/>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B708" s="4"/>
+      <c r="B708" s="3"/>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B709" s="4"/>
+      <c r="B709" s="3"/>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B710" s="4"/>
+      <c r="B710" s="3"/>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B711" s="4"/>
+      <c r="B711" s="3"/>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B712" s="4"/>
+      <c r="B712" s="3"/>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B713" s="4"/>
+      <c r="B713" s="3"/>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B714" s="4"/>
+      <c r="B714" s="3"/>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B715" s="4"/>
+      <c r="B715" s="3"/>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B716" s="4"/>
+      <c r="B716" s="3"/>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B717" s="4"/>
+      <c r="B717" s="3"/>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B718" s="4"/>
+      <c r="B718" s="3"/>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B719" s="4"/>
+      <c r="B719" s="3"/>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B720" s="4"/>
+      <c r="B720" s="3"/>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B721" s="4"/>
+      <c r="B721" s="3"/>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B722" s="4"/>
+      <c r="B722" s="3"/>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B723" s="4"/>
+      <c r="B723" s="3"/>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B724" s="4"/>
+      <c r="B724" s="3"/>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B725" s="4"/>
+      <c r="B725" s="3"/>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B726" s="4"/>
+      <c r="B726" s="3"/>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B727" s="4"/>
+      <c r="B727" s="3"/>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B728" s="4"/>
+      <c r="B728" s="3"/>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B729" s="4"/>
+      <c r="B729" s="3"/>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B730" s="4"/>
+      <c r="B730" s="3"/>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B731" s="4"/>
+      <c r="B731" s="3"/>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B732" s="4"/>
+      <c r="B732" s="3"/>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B733" s="4"/>
+      <c r="B733" s="3"/>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B734" s="4"/>
+      <c r="B734" s="3"/>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B735" s="4"/>
+      <c r="B735" s="3"/>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B736" s="4"/>
+      <c r="B736" s="3"/>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B737" s="4"/>
+      <c r="B737" s="3"/>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B738" s="4"/>
+      <c r="B738" s="3"/>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B739" s="4"/>
+      <c r="B739" s="3"/>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B740" s="4"/>
+      <c r="B740" s="3"/>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B741" s="4"/>
+      <c r="B741" s="3"/>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B742" s="4"/>
+      <c r="B742" s="3"/>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B743" s="4"/>
+      <c r="B743" s="3"/>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B744" s="4"/>
+      <c r="B744" s="3"/>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B745" s="4"/>
+      <c r="B745" s="3"/>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B746" s="4"/>
+      <c r="B746" s="3"/>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B747" s="4"/>
+      <c r="B747" s="3"/>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B748" s="4"/>
+      <c r="B748" s="3"/>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B749" s="4"/>
+      <c r="B749" s="3"/>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B750" s="4"/>
+      <c r="B750" s="3"/>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B751" s="4"/>
+      <c r="B751" s="3"/>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B752" s="4"/>
+      <c r="B752" s="3"/>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B753" s="4"/>
+      <c r="B753" s="3"/>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B754" s="4"/>
+      <c r="B754" s="3"/>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B755" s="4"/>
+      <c r="B755" s="3"/>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B756" s="4"/>
+      <c r="B756" s="3"/>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B757" s="4"/>
+      <c r="B757" s="3"/>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B758" s="4"/>
+      <c r="B758" s="3"/>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B759" s="4"/>
+      <c r="B759" s="3"/>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B760" s="4"/>
+      <c r="B760" s="3"/>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B761" s="4"/>
+      <c r="B761" s="3"/>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B762" s="4"/>
+      <c r="B762" s="3"/>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B763" s="4"/>
+      <c r="B763" s="3"/>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B764" s="4"/>
+      <c r="B764" s="3"/>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B765" s="4"/>
+      <c r="B765" s="3"/>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B766" s="4"/>
+      <c r="B766" s="3"/>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B767" s="4"/>
+      <c r="B767" s="3"/>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B768" s="4"/>
+      <c r="B768" s="3"/>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B769" s="4"/>
+      <c r="B769" s="3"/>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B770" s="4"/>
+      <c r="B770" s="3"/>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B771" s="4"/>
+      <c r="B771" s="3"/>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B772" s="4"/>
+      <c r="B772" s="3"/>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B773" s="4"/>
+      <c r="B773" s="3"/>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B774" s="4"/>
+      <c r="B774" s="3"/>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B775" s="4"/>
+      <c r="B775" s="3"/>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B776" s="4"/>
+      <c r="B776" s="3"/>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B777" s="4"/>
+      <c r="B777" s="3"/>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B778" s="4"/>
+      <c r="B778" s="3"/>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B779" s="4"/>
+      <c r="B779" s="3"/>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B780" s="4"/>
+      <c r="B780" s="3"/>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B781" s="4"/>
+      <c r="B781" s="3"/>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B782" s="4"/>
+      <c r="B782" s="3"/>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B783" s="4"/>
+      <c r="B783" s="3"/>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B784" s="4"/>
+      <c r="B784" s="3"/>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B785" s="4"/>
+      <c r="B785" s="3"/>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B786" s="4"/>
+      <c r="B786" s="3"/>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B787" s="4"/>
+      <c r="B787" s="3"/>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B788" s="4"/>
+      <c r="B788" s="3"/>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B789" s="4"/>
+      <c r="B789" s="3"/>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B790" s="4"/>
+      <c r="B790" s="3"/>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B791" s="4"/>
+      <c r="B791" s="3"/>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B792" s="4"/>
+      <c r="B792" s="3"/>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B793" s="4"/>
+      <c r="B793" s="3"/>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B794" s="4"/>
+      <c r="B794" s="3"/>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B795" s="4"/>
+      <c r="B795" s="3"/>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B796" s="4"/>
+      <c r="B796" s="3"/>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B797" s="4"/>
+      <c r="B797" s="3"/>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B798" s="4"/>
+      <c r="B798" s="3"/>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B799" s="4"/>
+      <c r="B799" s="3"/>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B800" s="4"/>
+      <c r="B800" s="3"/>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B801" s="4"/>
+      <c r="B801" s="3"/>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B802" s="4"/>
+      <c r="B802" s="3"/>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B803" s="4"/>
+      <c r="B803" s="3"/>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B804" s="4"/>
+      <c r="B804" s="3"/>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B805" s="4"/>
+      <c r="B805" s="3"/>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B806" s="4"/>
+      <c r="B806" s="3"/>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B807" s="4"/>
+      <c r="B807" s="3"/>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B808" s="4"/>
+      <c r="B808" s="3"/>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B809" s="4"/>
+      <c r="B809" s="3"/>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B810" s="4"/>
+      <c r="B810" s="3"/>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B811" s="4"/>
+      <c r="B811" s="3"/>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B812" s="4"/>
+      <c r="B812" s="3"/>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B813" s="4"/>
+      <c r="B813" s="3"/>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B814" s="4"/>
+      <c r="B814" s="3"/>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B815" s="4"/>
+      <c r="B815" s="3"/>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B816" s="4"/>
+      <c r="B816" s="3"/>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B817" s="4"/>
+      <c r="B817" s="3"/>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B818" s="4"/>
+      <c r="B818" s="3"/>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B819" s="4"/>
+      <c r="B819" s="3"/>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B820" s="4"/>
+      <c r="B820" s="3"/>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B821" s="4"/>
+      <c r="B821" s="3"/>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B822" s="4"/>
+      <c r="B822" s="3"/>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B823" s="4"/>
+      <c r="B823" s="3"/>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B824" s="4"/>
+      <c r="B824" s="3"/>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B825" s="4"/>
+      <c r="B825" s="3"/>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B826" s="4"/>
+      <c r="B826" s="3"/>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B827" s="4"/>
+      <c r="B827" s="3"/>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B828" s="4"/>
+      <c r="B828" s="3"/>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B829" s="4"/>
+      <c r="B829" s="3"/>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B830" s="4"/>
+      <c r="B830" s="3"/>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B831" s="4"/>
+      <c r="B831" s="3"/>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B832" s="4"/>
+      <c r="B832" s="3"/>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B833" s="4"/>
+      <c r="B833" s="3"/>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B834" s="4"/>
+      <c r="B834" s="3"/>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B835" s="4"/>
+      <c r="B835" s="3"/>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B836" s="4"/>
+      <c r="B836" s="3"/>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B837" s="4"/>
+      <c r="B837" s="3"/>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B838" s="4"/>
+      <c r="B838" s="3"/>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B839" s="4"/>
+      <c r="B839" s="3"/>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B840" s="4"/>
+      <c r="B840" s="3"/>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B841" s="4"/>
+      <c r="B841" s="3"/>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B842" s="4"/>
+      <c r="B842" s="3"/>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B843" s="4"/>
+      <c r="B843" s="3"/>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B844" s="4"/>
+      <c r="B844" s="3"/>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B845" s="4"/>
+      <c r="B845" s="3"/>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B846" s="4"/>
+      <c r="B846" s="3"/>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B847" s="4"/>
+      <c r="B847" s="3"/>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B848" s="4"/>
+      <c r="B848" s="3"/>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B849" s="4"/>
+      <c r="B849" s="3"/>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B850" s="4"/>
+      <c r="B850" s="3"/>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B851" s="4"/>
+      <c r="B851" s="3"/>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B852" s="4"/>
+      <c r="B852" s="3"/>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B853" s="4"/>
+      <c r="B853" s="3"/>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B854" s="4"/>
+      <c r="B854" s="3"/>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B855" s="4"/>
+      <c r="B855" s="3"/>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B856" s="4"/>
+      <c r="B856" s="3"/>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B857" s="4"/>
+      <c r="B857" s="3"/>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B858" s="4"/>
+      <c r="B858" s="3"/>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B859" s="4"/>
+      <c r="B859" s="3"/>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B860" s="4"/>
+      <c r="B860" s="3"/>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B861" s="4"/>
+      <c r="B861" s="3"/>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B862" s="4"/>
+      <c r="B862" s="3"/>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B863" s="4"/>
+      <c r="B863" s="3"/>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B864" s="4"/>
+      <c r="B864" s="3"/>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B865" s="4"/>
+      <c r="B865" s="3"/>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B866" s="4"/>
+      <c r="B866" s="3"/>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B867" s="4"/>
+      <c r="B867" s="3"/>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B868" s="4"/>
+      <c r="B868" s="3"/>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B869" s="4"/>
+      <c r="B869" s="3"/>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B870" s="4"/>
+      <c r="B870" s="3"/>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B871" s="4"/>
+      <c r="B871" s="3"/>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B872" s="4"/>
+      <c r="B872" s="3"/>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B873" s="4"/>
+      <c r="B873" s="3"/>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B874" s="4"/>
+      <c r="B874" s="3"/>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B875" s="4"/>
+      <c r="B875" s="3"/>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B876" s="4"/>
+      <c r="B876" s="3"/>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B877" s="4"/>
+      <c r="B877" s="3"/>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B878" s="4"/>
+      <c r="B878" s="3"/>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B879" s="4"/>
+      <c r="B879" s="3"/>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B880" s="4"/>
+      <c r="B880" s="3"/>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B881" s="4"/>
+      <c r="B881" s="3"/>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B882" s="4"/>
+      <c r="B882" s="3"/>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B883" s="4"/>
+      <c r="B883" s="3"/>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B884" s="4"/>
+      <c r="B884" s="3"/>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B885" s="4"/>
+      <c r="B885" s="3"/>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B886" s="4"/>
+      <c r="B886" s="3"/>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B887" s="4"/>
+      <c r="B887" s="3"/>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B888" s="4"/>
+      <c r="B888" s="3"/>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B889" s="4"/>
+      <c r="B889" s="3"/>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B890" s="4"/>
+      <c r="B890" s="3"/>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B891" s="4"/>
+      <c r="B891" s="3"/>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B892" s="4"/>
+      <c r="B892" s="3"/>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B893" s="4"/>
+      <c r="B893" s="3"/>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B894" s="4"/>
+      <c r="B894" s="3"/>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B895" s="4"/>
+      <c r="B895" s="3"/>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B896" s="4"/>
+      <c r="B896" s="3"/>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B897" s="4"/>
+      <c r="B897" s="3"/>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B898" s="4"/>
+      <c r="B898" s="3"/>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B899" s="4"/>
+      <c r="B899" s="3"/>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B900" s="4"/>
+      <c r="B900" s="3"/>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B901" s="4"/>
+      <c r="B901" s="3"/>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B902" s="4"/>
+      <c r="B902" s="3"/>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B903" s="4"/>
+      <c r="B903" s="3"/>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B904" s="4"/>
+      <c r="B904" s="3"/>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B905" s="4"/>
+      <c r="B905" s="3"/>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B906" s="4"/>
+      <c r="B906" s="3"/>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B907" s="4"/>
+      <c r="B907" s="3"/>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B908" s="4"/>
+      <c r="B908" s="3"/>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B909" s="4"/>
+      <c r="B909" s="3"/>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B910" s="4"/>
+      <c r="B910" s="3"/>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B911" s="4"/>
+      <c r="B911" s="3"/>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B912" s="4"/>
+      <c r="B912" s="3"/>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B913" s="4"/>
+      <c r="B913" s="3"/>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B914" s="4"/>
+      <c r="B914" s="3"/>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B915" s="4"/>
+      <c r="B915" s="3"/>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B916" s="4"/>
+      <c r="B916" s="3"/>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B917" s="4"/>
+      <c r="B917" s="3"/>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B918" s="4"/>
+      <c r="B918" s="3"/>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B919" s="4"/>
+      <c r="B919" s="3"/>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B920" s="4"/>
+      <c r="B920" s="3"/>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B921" s="4"/>
+      <c r="B921" s="3"/>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B922" s="4"/>
+      <c r="B922" s="3"/>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B923" s="4"/>
+      <c r="B923" s="3"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B924" s="4"/>
+      <c r="B924" s="3"/>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B925" s="4"/>
+      <c r="B925" s="3"/>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B926" s="4"/>
+      <c r="B926" s="3"/>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B927" s="4"/>
+      <c r="B927" s="3"/>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B928" s="4"/>
+      <c r="B928" s="3"/>
     </row>
     <row r="929" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B929" s="4"/>
+      <c r="B929" s="3"/>
     </row>
     <row r="930" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B930" s="4"/>
+      <c r="B930" s="3"/>
     </row>
     <row r="931" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B931" s="4"/>
+      <c r="B931" s="3"/>
     </row>
     <row r="932" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B932" s="4"/>
+      <c r="B932" s="3"/>
     </row>
     <row r="933" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B933" s="4"/>
+      <c r="B933" s="3"/>
     </row>
     <row r="934" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B934" s="4"/>
+      <c r="B934" s="3"/>
     </row>
     <row r="935" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B935" s="4"/>
+      <c r="B935" s="3"/>
     </row>
     <row r="936" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B936" s="4"/>
+      <c r="B936" s="3"/>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B937" s="4"/>
+      <c r="B937" s="3"/>
     </row>
     <row r="938" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B938" s="4"/>
+      <c r="B938" s="3"/>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B939" s="4"/>
+      <c r="B939" s="3"/>
     </row>
     <row r="940" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B940" s="4"/>
+      <c r="B940" s="3"/>
     </row>
     <row r="941" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B941" s="4"/>
+      <c r="B941" s="3"/>
     </row>
     <row r="942" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B942" s="4"/>
+      <c r="B942" s="3"/>
     </row>
     <row r="943" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B943" s="4"/>
+      <c r="B943" s="3"/>
     </row>
     <row r="944" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B944" s="4"/>
+      <c r="B944" s="3"/>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B945" s="4"/>
+      <c r="B945" s="3"/>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B946" s="4"/>
+      <c r="B946" s="3"/>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B947" s="4"/>
+      <c r="B947" s="3"/>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B948" s="4"/>
+      <c r="B948" s="3"/>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B949" s="4"/>
+      <c r="B949" s="3"/>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B950" s="4"/>
+      <c r="B950" s="3"/>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B951" s="4"/>
+      <c r="B951" s="3"/>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B952" s="4"/>
+      <c r="B952" s="3"/>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B953" s="4"/>
+      <c r="B953" s="3"/>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B954" s="4"/>
+      <c r="B954" s="3"/>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B955" s="4"/>
+      <c r="B955" s="3"/>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B956" s="4"/>
+      <c r="B956" s="3"/>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B957" s="4"/>
+      <c r="B957" s="3"/>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B958" s="4"/>
+      <c r="B958" s="3"/>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B959" s="4"/>
+      <c r="B959" s="3"/>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B960" s="4"/>
+      <c r="B960" s="3"/>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B961" s="4"/>
+      <c r="B961" s="3"/>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B962" s="4"/>
+      <c r="B962" s="3"/>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B963" s="4"/>
+      <c r="B963" s="3"/>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B964" s="4"/>
+      <c r="B964" s="3"/>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B965" s="4"/>
+      <c r="B965" s="3"/>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B966" s="4"/>
+      <c r="B966" s="3"/>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B967" s="4"/>
+      <c r="B967" s="3"/>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B968" s="4"/>
+      <c r="B968" s="3"/>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B969" s="4"/>
+      <c r="B969" s="3"/>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B970" s="4"/>
+      <c r="B970" s="3"/>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B971" s="4"/>
+      <c r="B971" s="3"/>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B972" s="4"/>
+      <c r="B972" s="3"/>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B973" s="4"/>
+      <c r="B973" s="3"/>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B974" s="4"/>
+      <c r="B974" s="3"/>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B975" s="4"/>
+      <c r="B975" s="3"/>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B976" s="4"/>
+      <c r="B976" s="3"/>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B977" s="4"/>
+      <c r="B977" s="3"/>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B978" s="4"/>
+      <c r="B978" s="3"/>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B979" s="4"/>
+      <c r="B979" s="3"/>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B980" s="4"/>
+      <c r="B980" s="3"/>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B981" s="4"/>
+      <c r="B981" s="3"/>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B982" s="4"/>
+      <c r="B982" s="3"/>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B983" s="4"/>
+      <c r="B983" s="3"/>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B984" s="4"/>
+      <c r="B984" s="3"/>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B985" s="4"/>
+      <c r="B985" s="3"/>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B986" s="4"/>
+      <c r="B986" s="3"/>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B987" s="4"/>
+      <c r="B987" s="3"/>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B988" s="4"/>
+      <c r="B988" s="3"/>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B989" s="4"/>
+      <c r="B989" s="3"/>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B990" s="4"/>
+      <c r="B990" s="3"/>
     </row>
     <row r="991" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B991" s="4"/>
+      <c r="B991" s="3"/>
     </row>
     <row r="992" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B992" s="4"/>
+      <c r="B992" s="3"/>
     </row>
     <row r="993" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B993" s="4"/>
+      <c r="B993" s="3"/>
     </row>
     <row r="994" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B994" s="4"/>
+      <c r="B994" s="3"/>
     </row>
     <row r="995" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B995" s="4"/>
+      <c r="B995" s="3"/>
     </row>
     <row r="996" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B996" s="4"/>
+      <c r="B996" s="3"/>
     </row>
     <row r="997" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B997" s="4"/>
+      <c r="B997" s="3"/>
     </row>
     <row r="998" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B998" s="4"/>
+      <c r="B998" s="3"/>
     </row>
     <row r="999" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B999" s="4"/>
+      <c r="B999" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T41" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T41">
+      <sortCondition ref="D2:D41"/>
+      <sortCondition ref="C2:C41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D1724-AF38-DB4D-B112-F6FEB531872D}">
-  <dimension ref="B1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFBFB8B-2F70-794E-837E-8ADE9F4A8590}">
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.39412232689773202</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.25464549439664802</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3.2503664609162701</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1.8028772728381299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.41709965420501199</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.249979791721197</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.7981606643485</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.9488870322182601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.370608004594563</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.21567625623593201</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3.4814494136366299</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1.8658642538075001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.34155701193186599</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.20762078245439</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.7231067192282601</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1.65018384406958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.4434187152586E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.02487851218073E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.26492351829323402</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.51470721608817005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.71687307262760702</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.63569556179667497</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.3862407068405</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1.17738723742042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.122552466591897</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4.8374237247639097E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.56111250009447899</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.74907442894179699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.77557822946845E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1.0519623654359E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>9.62359120502909E-3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>9.8099904204994398E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1561040.68478877</v>
+      </c>
+      <c r="E11" s="13">
+        <v>979.43064169683498</v>
+      </c>
+      <c r="F11" s="13">
+        <v>24021933789462.102</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4901217.5823423797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1449514.7083115799</v>
+      </c>
+      <c r="E12" s="13">
+        <v>118.592547932437</v>
+      </c>
+      <c r="F12" s="13">
+        <v>63469906841718.797</v>
+      </c>
+      <c r="G12" s="13">
+        <v>7966800.28880597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1549046.9106876201</v>
+      </c>
+      <c r="E13" s="13">
+        <v>980.24829016725596</v>
+      </c>
+      <c r="F13" s="13">
+        <v>57085909070272.602</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7555521.7602937697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="13">
+        <v>711668.10815142095</v>
+      </c>
+      <c r="E14" s="13">
+        <v>189.90957874447301</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7359615501442.8799</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2712861.1283003101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="13">
+        <v>133692.54876465499</v>
+      </c>
+      <c r="E15" s="13">
+        <v>188.033025620393</v>
+      </c>
+      <c r="F15" s="13">
+        <v>919025280961.81396</v>
+      </c>
+      <c r="G15" s="13">
+        <v>958658.06258635002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1410110.0156932599</v>
+      </c>
+      <c r="E16" s="13">
+        <v>537.72048056623805</v>
+      </c>
+      <c r="F16" s="13">
+        <v>58876459617995</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7673099.7398701301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1006635.42643956</v>
+      </c>
+      <c r="E17" s="13">
+        <v>650.61511824952004</v>
+      </c>
+      <c r="F17" s="13">
+        <v>31139293745404.5</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5580259.2901588799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="13">
+        <v>111344.32894983199</v>
+      </c>
+      <c r="E18" s="13">
+        <v>76.710975247324896</v>
+      </c>
+      <c r="F18" s="13">
+        <v>217682322820.34299</v>
+      </c>
+      <c r="G18" s="13">
+        <v>466564.38228860003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="13">
+        <v>9.5930431124829507</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.9112789113836199</v>
+      </c>
+      <c r="F19" s="13">
+        <v>35639.445641358201</v>
+      </c>
+      <c r="G19" s="13">
+        <v>188.78412444206799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="13">
+        <v>11.6195912915324</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2.2787042030039601</v>
+      </c>
+      <c r="F20" s="13">
+        <v>36165.058607676299</v>
+      </c>
+      <c r="G20" s="13">
+        <v>190.17112979544501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="13">
+        <v>11.7525900339239</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2.27550280383982</v>
+      </c>
+      <c r="F21" s="13">
+        <v>36206.4938192806</v>
+      </c>
+      <c r="G21" s="13">
+        <v>190.28004051734001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="13">
+        <v>10.423768261772601</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2.0854112989341198</v>
+      </c>
+      <c r="F22" s="13">
+        <v>35790.719156984604</v>
+      </c>
+      <c r="G22" s="13">
+        <v>189.184352304794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="13">
+        <v>6.2077463892811799</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.97863461511687899</v>
+      </c>
+      <c r="F23" s="13">
+        <v>32829.231393518297</v>
+      </c>
+      <c r="G23" s="13">
+        <v>181.18838647528801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="13">
+        <v>5.9276671959851397</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1.1686649787279599</v>
+      </c>
+      <c r="F24" s="13">
+        <v>18776.395493301599</v>
+      </c>
+      <c r="G24" s="13">
+        <v>137.02698819320801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="13">
+        <v>11.2399032495066</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2.77208563661716</v>
+      </c>
+      <c r="F25" s="13">
+        <v>28770.8251573015</v>
+      </c>
+      <c r="G25" s="13">
+        <v>169.61964850011199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2.0195767121911001</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.32360207075532299</v>
+      </c>
+      <c r="F26" s="13">
+        <v>141.57835896289799</v>
+      </c>
+      <c r="G26" s="13">
+        <v>11.8986704703886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="13">
+        <v>11.5516745556867</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2.2988422302665299</v>
+      </c>
+      <c r="F27" s="13">
+        <v>22437.226454235999</v>
+      </c>
+      <c r="G27" s="13">
+        <v>149.790608698396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="13">
+        <v>11.961414263749401</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2.1147182657385302</v>
+      </c>
+      <c r="F28" s="13">
+        <v>24078.662557588501</v>
+      </c>
+      <c r="G28" s="13">
+        <v>155.17300846986399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="13">
+        <v>11.901832043110799</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2.2044701972403802</v>
+      </c>
+      <c r="F29" s="13">
+        <v>24081.2938092556</v>
+      </c>
+      <c r="G29" s="13">
+        <v>155.18148668335201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="13">
+        <v>10.417396359682501</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2.1147796663295702</v>
+      </c>
+      <c r="F30" s="13">
+        <v>19555.931487314901</v>
+      </c>
+      <c r="G30" s="13">
+        <v>139.84252388781701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="13">
+        <v>4.5212131902817898</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0.77667114056239495</v>
+      </c>
+      <c r="F31" s="13">
+        <v>13995.285069297401</v>
+      </c>
+      <c r="G31" s="13">
+        <v>118.301669765466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="13">
+        <v>12.615895769183799</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3.4517943228109398</v>
+      </c>
+      <c r="F32" s="13">
+        <v>19193.421050229099</v>
+      </c>
+      <c r="G32" s="13">
+        <v>138.54032283140199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="13">
+        <v>9.1908355902016901</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2.1148784922473198</v>
+      </c>
+      <c r="F33" s="13">
+        <v>15763.067225171</v>
+      </c>
+      <c r="G33" s="13">
+        <v>125.551054257505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="13">
+        <v>5.7239543206742001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.96262737666867604</v>
+      </c>
+      <c r="F34" s="13">
+        <v>7940.5416647493703</v>
+      </c>
+      <c r="G34" s="13">
+        <v>89.109717005214193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="b">
+      <c r="B35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1">
-        <v>317530.90000000002</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="M1" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="N1" s="1">
-        <v>408946.67</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="13">
+        <v>5756.2288278066499</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.7148270262032301E+17</v>
+      </c>
+      <c r="F35" s="13">
+        <v>694152141.19776499</v>
+      </c>
+      <c r="G35" s="13">
+        <v>26346.767186844099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="13">
+        <v>5948.0344746119199</v>
+      </c>
+      <c r="E36" s="13">
+        <v>3.1338624109773702E+17</v>
+      </c>
+      <c r="F36" s="13">
+        <v>765296507.67522395</v>
+      </c>
+      <c r="G36" s="13">
+        <v>27663.992981404899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="13">
+        <v>5908.2380459360702</v>
+      </c>
+      <c r="E37" s="13">
+        <v>3.4075983010024301E+17</v>
+      </c>
+      <c r="F37" s="13">
+        <v>744083288.91006899</v>
+      </c>
+      <c r="G37" s="13">
+        <v>27277.890111041699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="13">
+        <v>5211.0987177491997</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2.1902279931759398E+17</v>
+      </c>
+      <c r="F38" s="13">
+        <v>642017019.43968403</v>
+      </c>
+      <c r="G38" s="13">
+        <v>25338.054768266698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="13">
+        <v>618.91901275930604</v>
+      </c>
+      <c r="E39" s="13">
+        <v>5.6861185589383504E+16</v>
+      </c>
+      <c r="F39" s="13">
+        <v>100400005.554709</v>
+      </c>
+      <c r="G39" s="13">
+        <v>10019.9803170819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1835.85969029076</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1.4554725954102099E+17</v>
+      </c>
+      <c r="F40" s="13">
+        <v>46106529.641624101</v>
+      </c>
+      <c r="G40" s="13">
+        <v>6790.1789108700304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3351.9975950412099</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3.9681403742501498E+17</v>
+      </c>
+      <c r="F41" s="13">
+        <v>93813990.969383597</v>
+      </c>
+      <c r="G41" s="13">
+        <v>9685.7622812757309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="13">
+        <v>902.66554165565299</v>
+      </c>
+      <c r="E42" s="13">
+        <v>6.93209158225692E+16</v>
+      </c>
+      <c r="F42" s="13">
+        <v>112180843.851459</v>
+      </c>
+      <c r="G42" s="13">
+        <v>10591.545866938301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.48394214936226998</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0.32198980651791498</v>
+      </c>
+      <c r="F44" s="13">
+        <v>18.585816598233801</v>
+      </c>
+      <c r="G44" s="13">
+        <v>4.3111270682077896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.42945388525377698</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.24777053029493101</v>
+      </c>
+      <c r="F45" s="13">
+        <v>18.879788404044799</v>
+      </c>
+      <c r="G45" s="13">
+        <v>4.3450878476786698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0.41040680484449099</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.23896618011860599</v>
+      </c>
+      <c r="F46" s="13">
+        <v>18.7232603093907</v>
+      </c>
+      <c r="G46" s="13">
+        <v>4.3270382837907402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0.39367584850201198</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.22939550467606401</v>
+      </c>
+      <c r="F47" s="13">
+        <v>14.9199616740637</v>
+      </c>
+      <c r="G47" s="13">
+        <v>3.8626366220580102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="13">
+        <v>3.0340617532645501E-2</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1.46909780415153E-2</v>
+      </c>
+      <c r="F48" s="13">
+        <v>9.16530775164372</v>
+      </c>
+      <c r="G48" s="13">
+        <v>3.0274259283496399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0.74121413768060496</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.66168667728622199</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3.0902633780114699</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1.7579144967863101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.122529943597808</v>
+      </c>
+      <c r="E50" s="13">
+        <v>4.6609687998664703E-2</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1.08766782625678</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1.04291314415764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2.5926282119381999E-2</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1.0849701457640601E-2</v>
+      </c>
+      <c r="F51" s="13">
+        <v>5.7488910430794</v>
+      </c>
+      <c r="G51" s="13">
+        <v>2.3976845170037202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1136671.8516844099</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1221.0183637596699</v>
+      </c>
+      <c r="F52" s="13">
+        <v>4947905781436.3496</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2224388.8557166299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="13">
+        <v>771421.50137847604</v>
+      </c>
+      <c r="E53" s="13">
+        <v>123.084207495877</v>
+      </c>
+      <c r="F53" s="13">
+        <v>6015428768567.6904</v>
+      </c>
+      <c r="G53" s="13">
+        <v>2452637.1049479898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="13">
+        <v>878282.65678661806</v>
+      </c>
+      <c r="E54" s="13">
+        <v>973.61337564316204</v>
+      </c>
+      <c r="F54" s="13">
+        <v>5206301448558.1396</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2281732.1158624501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="13">
+        <v>580684.67737845902</v>
+      </c>
+      <c r="E55" s="13">
+        <v>140.47354472558499</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2244333572200.1899</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1498110.0000334401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="13">
+        <v>60558.266532668298</v>
+      </c>
+      <c r="E56" s="13">
+        <v>115.189019956954</v>
+      </c>
+      <c r="F56" s="13">
+        <v>24288270905.349201</v>
+      </c>
+      <c r="G56" s="13">
+        <v>155846.94705174401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="13">
+        <v>746192.34974620503</v>
+      </c>
+      <c r="E57" s="13">
+        <v>526.94953116208706</v>
+      </c>
+      <c r="F57" s="13">
+        <v>5310341598292.5</v>
+      </c>
+      <c r="G57" s="13">
+        <v>2304417.8436847101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="13">
+        <v>464442.02057973901</v>
+      </c>
+      <c r="E58" s="13">
+        <v>653.85927387733602</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2224819160967.4102</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1491582.7704044399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="13">
+        <v>90219.848773733902</v>
+      </c>
+      <c r="E59" s="13">
+        <v>65.226980794655802</v>
+      </c>
+      <c r="F59" s="13">
+        <v>148506114698.01001</v>
+      </c>
+      <c r="G59" s="13">
+        <v>385364.91108819202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="13">
+        <v>10.7992881680628</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2.3368575682124</v>
+      </c>
+      <c r="F60" s="13">
+        <v>164206.92837942799</v>
+      </c>
+      <c r="G60" s="13">
+        <v>405.22454069247601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="13">
+        <v>11.830835725357099</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2.69830547583613</v>
+      </c>
+      <c r="F61" s="13">
+        <v>164355.19816112</v>
+      </c>
+      <c r="G61" s="13">
+        <v>405.407447096277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="13">
+        <v>11.970963388605901</v>
+      </c>
+      <c r="E62" s="13">
+        <v>2.7185832013583799</v>
+      </c>
+      <c r="F62" s="13">
+        <v>164374.56466248099</v>
+      </c>
+      <c r="G62" s="13">
+        <v>405.43133162408799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="13">
+        <v>12.481587667168499</v>
+      </c>
+      <c r="E63" s="13">
+        <v>2.9586074609036102</v>
+      </c>
+      <c r="F63" s="13">
+        <v>164819.31693445801</v>
+      </c>
+      <c r="G63" s="13">
+        <v>405.979453832898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="13">
+        <v>7.0735015704105901</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1.0787281563046001</v>
+      </c>
+      <c r="F64" s="13">
+        <v>156368.61597885101</v>
+      </c>
+      <c r="G64" s="13">
+        <v>395.434717720702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="13">
+        <v>5.9423921310165797</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1.32752831516603</v>
+      </c>
+      <c r="F65" s="13">
+        <v>81059.719614388494</v>
+      </c>
+      <c r="G65" s="13">
+        <v>284.70988675209099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="13">
+        <v>12.533841896346599</v>
+      </c>
+      <c r="E66" s="13">
+        <v>3.83351454303296</v>
+      </c>
+      <c r="F66" s="13">
+        <v>130738.041103204</v>
+      </c>
+      <c r="G66" s="13">
+        <v>361.577157883631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="13">
+        <v>3.3578273896942199</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.383260607350425</v>
+      </c>
+      <c r="F67" s="13">
+        <v>83363.635655057704</v>
+      </c>
+      <c r="G67" s="13">
+        <v>288.72761498522698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="13">
+        <v>12.409889107821501</v>
+      </c>
+      <c r="E68" s="13">
+        <v>3.0299000260789399</v>
+      </c>
+      <c r="F68" s="13">
+        <v>82180.471008986802</v>
+      </c>
+      <c r="G68" s="13">
+        <v>286.671364124474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="13">
+        <v>11.0109965737915</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2.1333030940239599</v>
+      </c>
+      <c r="F69" s="13">
+        <v>82070.540656641897</v>
+      </c>
+      <c r="G69" s="13">
+        <v>286.47956411695702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="13">
+        <v>11.018062301370399</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2.2810663434156901</v>
+      </c>
+      <c r="F70" s="13">
+        <v>82061.721254846198</v>
+      </c>
+      <c r="G70" s="13">
+        <v>286.46417097928003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="13">
+        <v>12.3048398579355</v>
+      </c>
+      <c r="E71" s="13">
+        <v>2.9322754933726398</v>
+      </c>
+      <c r="F71" s="13">
+        <v>82305.852720224299</v>
+      </c>
+      <c r="G71" s="13">
+        <v>286.88996622437702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="13">
+        <v>4.7036112218513901</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0.78431679505196406</v>
+      </c>
+      <c r="F72" s="13">
+        <v>65258.004197123599</v>
+      </c>
+      <c r="G72" s="13">
+        <v>255.45646242975201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="13">
+        <v>11.981070392043099</v>
+      </c>
+      <c r="E73" s="13">
+        <v>3.5648791820991801</v>
+      </c>
+      <c r="F73" s="13">
+        <v>68046.2706267553</v>
+      </c>
+      <c r="G73" s="13">
+        <v>260.85680099770298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="13">
+        <v>8.5848399635329304</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2.1247897730626999</v>
+      </c>
+      <c r="F74" s="13">
+        <v>50035.126671624799</v>
+      </c>
+      <c r="G74" s="13">
+        <v>223.68532958516701</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="13">
+        <v>5.7051862633288</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0.98513645860987797</v>
+      </c>
+      <c r="F75" s="13">
+        <v>80163.252441853096</v>
+      </c>
+      <c r="G75" s="13">
+        <v>283.13115766699502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="b">
+      <c r="B76" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3375479.27</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3421527.86</v>
+      <c r="C76" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="13">
+        <v>5912.0507165855697</v>
+      </c>
+      <c r="E76" s="13">
+        <v>2.06338973823964E+17</v>
+      </c>
+      <c r="F76" s="13">
+        <v>780707610.53753603</v>
+      </c>
+      <c r="G76" s="13">
+        <v>27941.1454764749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="13">
+        <v>6182.7845676440002</v>
+      </c>
+      <c r="E77" s="13">
+        <v>2.3883914035887398E+17</v>
+      </c>
+      <c r="F77" s="13">
+        <v>874748688.97130406</v>
+      </c>
+      <c r="G77" s="13">
+        <v>29576.1506787361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="13">
+        <v>6150.6406943392603</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2.4133609770067699E+17</v>
+      </c>
+      <c r="F78" s="13">
+        <v>817864572.04866803</v>
+      </c>
+      <c r="G78" s="13">
+        <v>28598.331630510598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="13">
+        <v>5406.6825164808097</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1.7955531854880899E+17</v>
+      </c>
+      <c r="F79" s="13">
+        <v>710259009.31724596</v>
+      </c>
+      <c r="G79" s="13">
+        <v>26650.684969006801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="13">
+        <v>687.66456746133804</v>
+      </c>
+      <c r="E80" s="13">
+        <v>3.26205379374198E+16</v>
+      </c>
+      <c r="F80" s="13">
+        <v>129229055.60641401</v>
+      </c>
+      <c r="G80" s="13">
+        <v>11367.8958302059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="13">
+        <v>1922.21242974908</v>
+      </c>
+      <c r="E81" s="13">
+        <v>9.7377960620463504E+16</v>
+      </c>
+      <c r="F81" s="13">
+        <v>38450217.344450898</v>
+      </c>
+      <c r="G81" s="13">
+        <v>6200.8239246450903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="13">
+        <v>3477.5110565370301</v>
+      </c>
+      <c r="E82" s="13">
+        <v>2.5229963061592602E+17</v>
+      </c>
+      <c r="F82" s="13">
+        <v>105859045.184744</v>
+      </c>
+      <c r="G82" s="13">
+        <v>10288.782492828999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="13">
+        <v>1035.73425472177</v>
+      </c>
+      <c r="E83" s="13">
+        <v>4.97497560742086E+16</v>
+      </c>
+      <c r="F83" s="13">
+        <v>173193465.63316301</v>
+      </c>
+      <c r="G83" s="13">
+        <v>13160.2988428516</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A44:A51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D1724-AF38-DB4D-B112-F6FEB531872D}">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="12">
+        <v>317530.90000000002</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="12">
+        <f>H2*H2</f>
+        <v>167237378904.0889</v>
+      </c>
+      <c r="H2" s="12">
+        <v>408946.67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3375479.27</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="G3" s="12">
+        <f>H3*H3</f>
+        <v>11706852896756.178</v>
+      </c>
+      <c r="H3" s="12">
+        <v>3421527.86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5912.0507165855697</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2.06338973823964E+17</v>
+      </c>
+      <c r="G4" s="13">
+        <v>780707610.53753603</v>
+      </c>
+      <c r="H4" s="13">
+        <v>27941.1454764749</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6182.7845676440002</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.3883914035887398E+17</v>
+      </c>
+      <c r="G5" s="13">
+        <v>874748688.97130406</v>
+      </c>
+      <c r="H5" s="13">
+        <v>29576.1506787361</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6150.6406943392603</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.4133609770067699E+17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>817864572.04866803</v>
+      </c>
+      <c r="H6" s="13">
+        <v>28598.331630510598</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5406.6825164808097</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.7955531854880899E+17</v>
+      </c>
+      <c r="G7" s="13">
+        <v>710259009.31724596</v>
+      </c>
+      <c r="H7" s="13">
+        <v>26650.684969006801</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="21"/>
+      <c r="C8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="17">
+        <v>687.66456746133804</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3.26205379374198E+16</v>
+      </c>
+      <c r="G8" s="13">
+        <v>129229055.60641401</v>
+      </c>
+      <c r="H8" s="13">
+        <v>11367.8958302059</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1922.21242974908</v>
+      </c>
+      <c r="F9" s="13">
+        <v>9.7377960620463504E+16</v>
+      </c>
+      <c r="G9" s="17">
+        <v>38450217.344450898</v>
+      </c>
+      <c r="H9" s="17">
+        <v>6200.8239246450903</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3477.5110565370301</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.5229963061592602E+17</v>
+      </c>
+      <c r="G10" s="24">
+        <v>105859045.184744</v>
+      </c>
+      <c r="H10" s="24">
+        <v>10288.782492828999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1035.73425472177</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4.97497560742086E+16</v>
+      </c>
+      <c r="G11" s="13">
+        <v>173193465.63316301</v>
+      </c>
+      <c r="H11" s="13">
+        <v>13160.2988428516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="26">
+        <f>E2-E8</f>
+        <v>316843.23543253867</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="26">
+        <f>G2-G9</f>
+        <v>167198928686.74445</v>
+      </c>
+      <c r="H14" s="26">
+        <f>H2-H9</f>
+        <v>402745.8460753549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="26">
+        <f>E2-E11</f>
+        <v>316495.16574527824</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="26">
+        <f>G2-G10</f>
+        <v>167131519858.90414</v>
+      </c>
+      <c r="H15" s="26">
+        <f>H2-H10</f>
+        <v>398657.88750717096</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943C64C-7BAE-554E-ABE2-93E3B1F0F6CB}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>2935849</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>2348679</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>587170</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>2348679</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>735</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1033</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>735</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>298</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>7</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>12</v>
       </c>
       <c r="M2" t="s">
@@ -6986,40 +9002,40 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2935849</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2348679</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>587170</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>587170</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>298</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>1033</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>735</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>298</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>7</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>12</v>
       </c>
       <c r="M3" t="s">
@@ -7030,40 +9046,40 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1037336</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>829868</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>207468</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>829868</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1783</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>2193</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1783</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>410</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>7</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>12</v>
       </c>
       <c r="M4" t="s">
@@ -7074,40 +9090,40 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1037336</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>829868</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>207468</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>207468</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>410</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>2193</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>1783</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>410</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>7</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
@@ -7118,40 +9134,40 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>237165</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>189732</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>47433</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>189732</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>10196</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>127691</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>10196</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2495</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>10</v>
       </c>
       <c r="M6" t="s">
@@ -7162,40 +9178,40 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>237165</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>189732</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>47433</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>47433</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2495</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>127691</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>10196</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>2495</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>10</v>
       </c>
       <c r="M7" t="s">
@@ -7206,128 +9222,128 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>406829</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>325463</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>81366</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>325463</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>336.09026999999998</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>373.18333000000001</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>336.09026999999998</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>37.0931</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>9</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>406829</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>325463</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>81366</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>81366</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>37.0931</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>373.18333000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>336.09026999999998</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>37.0931</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>9</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>10</v>
       </c>
       <c r="M9" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>824364</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>659491</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>164873</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>659491</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>647.30833299999995</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>738.21180500000003</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>647.30833299999995</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>90.903499999999994</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>9</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>14</v>
       </c>
       <c r="M10" t="s">
@@ -7338,40 +9354,40 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>824364</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>659491</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>164873</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>164873</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>90.903499999999994</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>738.21180500000003</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>647.30833299999995</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>90.903499999999994</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>9</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>14</v>
       </c>
       <c r="M11" t="s">

--- a/all-results-trimed.xlsx
+++ b/all-results-trimed.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumensardar/Documents/Projects/scm4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807FFD6-1BDE-5A40-9C8F-BDC9BD441A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63865ACC-E581-A742-A92F-9FFBD75592DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-results" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="baseline" sheetId="2" r:id="rId3"/>
     <sheet name="dataset" sheetId="3" r:id="rId4"/>
+    <sheet name="feature-importance" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'all-results'!$A$1:$T$41</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="146">
   <si>
     <t>Duration</t>
   </si>
@@ -405,13 +406,88 @@
   </si>
   <si>
     <t>2nd Best</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>item_id&amp;day_of_week</t>
+  </si>
+  <si>
+    <t>day_of_week</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY_DESC&amp;UNIT_DESC</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY_DESC</t>
+  </si>
+  <si>
+    <t>UNIT_DESC</t>
+  </si>
+  <si>
+    <t>HS_CODE</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY_CODE</t>
+  </si>
+  <si>
+    <t>CustomerID&amp;Country</t>
+  </si>
+  <si>
+    <t>Country&amp;day</t>
+  </si>
+  <si>
+    <t>StockCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Price&amp;month</t>
+  </si>
+  <si>
+    <t>Price&amp;day</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Warehouse&amp;month</t>
+  </si>
+  <si>
+    <t>Top Feature Rank#1</t>
+  </si>
+  <si>
+    <t>Top Feature Rank#2</t>
+  </si>
+  <si>
+    <t>Top Feature Rank#3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +676,13 @@
       <i/>
       <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1016,7 +1099,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1059,12 +1142,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,9 +1149,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1162,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1549,7 +1642,7 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <f>H2+L2</f>
+        <f t="shared" ref="G2:G41" si="0">H2+L2</f>
         <v>2935849</v>
       </c>
       <c r="H2">
@@ -1612,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <f>H3+L3</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H3">
@@ -1675,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <f>H4+L4</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H4">
@@ -1738,7 +1831,7 @@
         <v>55</v>
       </c>
       <c r="G5">
-        <f>H5+L5</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H5">
@@ -1801,7 +1894,7 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <f>H6+L6</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H6">
@@ -1864,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="G7">
-        <f>H7+L7</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H7">
@@ -1927,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <f>H8+L8</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H8">
@@ -1990,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="G9">
-        <f>H9+L9</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H9">
@@ -2053,7 +2146,7 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <f>H10+L10</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H10">
@@ -2116,7 +2209,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <f>H11+L11</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H11">
@@ -2179,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <f>H12+L12</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H12">
@@ -2242,7 +2335,7 @@
         <v>55</v>
       </c>
       <c r="G13">
-        <f>H13+L13</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H13">
@@ -2305,7 +2398,7 @@
         <v>53</v>
       </c>
       <c r="G14">
-        <f>H14+L14</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H14">
@@ -2368,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="G15">
-        <f>H15+L15</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H15">
@@ -2431,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <f>H16+L16</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H16">
@@ -2494,7 +2587,7 @@
         <v>55</v>
       </c>
       <c r="G17">
-        <f>H17+L17</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H17">
@@ -2557,7 +2650,7 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <f>H18+L18</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H18">
@@ -2620,7 +2713,7 @@
         <v>25</v>
       </c>
       <c r="G19">
-        <f>H19+L19</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H19">
@@ -2683,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <f>H20+L20</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H20">
@@ -2746,7 +2839,7 @@
         <v>55</v>
       </c>
       <c r="G21">
-        <f>H21+L21</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H21">
@@ -2809,7 +2902,7 @@
         <v>53</v>
       </c>
       <c r="G22">
-        <f>H22+L22</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H22">
@@ -2872,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <f>H23+L23</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H23">
@@ -2935,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <f>H24+L24</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H24">
@@ -2998,7 +3091,7 @@
         <v>55</v>
       </c>
       <c r="G25">
-        <f>H25+L25</f>
+        <f t="shared" si="0"/>
         <v>2935849</v>
       </c>
       <c r="H25">
@@ -3061,7 +3154,7 @@
         <v>53</v>
       </c>
       <c r="G26">
-        <f>H26+L26</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H26">
@@ -3124,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="G27">
-        <f>H27+L27</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H27">
@@ -3187,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="G28">
-        <f>H28+L28</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H28">
@@ -3250,7 +3343,7 @@
         <v>55</v>
       </c>
       <c r="G29">
-        <f>H29+L29</f>
+        <f t="shared" si="0"/>
         <v>237165</v>
       </c>
       <c r="H29">
@@ -3313,7 +3406,7 @@
         <v>53</v>
       </c>
       <c r="G30">
-        <f>H30+L30</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H30">
@@ -3376,7 +3469,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <f>H31+L31</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H31">
@@ -3439,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="G32">
-        <f>H32+L32</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H32">
@@ -3502,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="G33">
-        <f>H33+L33</f>
+        <f t="shared" si="0"/>
         <v>406829</v>
       </c>
       <c r="H33">
@@ -3565,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="G34">
-        <f>H34+L34</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H34">
@@ -3628,7 +3721,7 @@
         <v>25</v>
       </c>
       <c r="G35">
-        <f>H35+L35</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H35">
@@ -3691,7 +3784,7 @@
         <v>20</v>
       </c>
       <c r="G36">
-        <f>H36+L36</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H36">
@@ -3754,7 +3847,7 @@
         <v>55</v>
       </c>
       <c r="G37">
-        <f>H37+L37</f>
+        <f t="shared" si="0"/>
         <v>824364</v>
       </c>
       <c r="H37">
@@ -3817,7 +3910,7 @@
         <v>53</v>
       </c>
       <c r="G38">
-        <f>H38+L38</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H38">
@@ -3880,7 +3973,7 @@
         <v>25</v>
       </c>
       <c r="G39">
-        <f>H39+L39</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H39">
@@ -3943,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="G40">
-        <f>H40+L40</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H40">
@@ -4006,7 +4099,7 @@
         <v>55</v>
       </c>
       <c r="G41">
-        <f>H41+L41</f>
+        <f t="shared" si="0"/>
         <v>1037336</v>
       </c>
       <c r="H41">
@@ -6944,7 +7037,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
@@ -6952,44 +7045,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="16" t="b">
+      <c r="B3" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -7009,8 +7102,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
         <v>118</v>
       </c>
@@ -7028,8 +7121,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
         <v>117</v>
       </c>
@@ -7047,8 +7140,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
         <v>116</v>
       </c>
@@ -7066,8 +7159,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16" t="b">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -7087,8 +7180,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="13" t="s">
         <v>118</v>
       </c>
@@ -7106,8 +7199,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
         <v>117</v>
       </c>
@@ -7125,8 +7218,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
         <v>116</v>
       </c>
@@ -7144,10 +7237,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="b">
+      <c r="B11" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -7167,8 +7260,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="13" t="s">
         <v>118</v>
       </c>
@@ -7186,8 +7279,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="13" t="s">
         <v>117</v>
       </c>
@@ -7205,8 +7298,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
         <v>116</v>
       </c>
@@ -7224,8 +7317,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16" t="b">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -7245,8 +7338,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="13" t="s">
         <v>118</v>
       </c>
@@ -7264,8 +7357,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="13" t="s">
         <v>117</v>
       </c>
@@ -7283,8 +7376,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="13" t="s">
         <v>116</v>
       </c>
@@ -7302,10 +7395,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="b">
+      <c r="B19" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -7325,8 +7418,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>118</v>
       </c>
@@ -7344,8 +7437,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>117</v>
       </c>
@@ -7363,8 +7456,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>116</v>
       </c>
@@ -7382,8 +7475,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16" t="b">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -7403,8 +7496,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>118</v>
       </c>
@@ -7422,8 +7515,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>117</v>
       </c>
@@ -7441,8 +7534,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>116</v>
       </c>
@@ -7460,10 +7553,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="16" t="b">
+      <c r="B27" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -7483,8 +7576,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>118</v>
       </c>
@@ -7502,8 +7595,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>117</v>
       </c>
@@ -7521,8 +7614,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>116</v>
       </c>
@@ -7540,8 +7633,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16" t="b">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -7561,8 +7654,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>118</v>
       </c>
@@ -7580,8 +7673,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>117</v>
       </c>
@@ -7599,8 +7692,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="13" t="s">
         <v>116</v>
       </c>
@@ -7618,10 +7711,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="b">
+      <c r="B35" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -7641,8 +7734,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="13" t="s">
         <v>118</v>
       </c>
@@ -7660,8 +7753,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="13" t="s">
         <v>117</v>
       </c>
@@ -7679,8 +7772,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>116</v>
       </c>
@@ -7698,8 +7791,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16" t="b">
+      <c r="A39" s="25"/>
+      <c r="B39" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -7719,8 +7812,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="13" t="s">
         <v>118</v>
       </c>
@@ -7738,8 +7831,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="13" t="s">
         <v>117</v>
       </c>
@@ -7757,8 +7850,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="13" t="s">
         <v>116</v>
       </c>
@@ -7776,21 +7869,21 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="16" t="b">
+      <c r="B44" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -7810,8 +7903,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="13" t="s">
         <v>118</v>
       </c>
@@ -7829,8 +7922,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="13" t="s">
         <v>117</v>
       </c>
@@ -7848,8 +7941,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="13" t="s">
         <v>116</v>
       </c>
@@ -7867,8 +7960,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="16" t="b">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -7888,8 +7981,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="13" t="s">
         <v>118</v>
       </c>
@@ -7907,8 +8000,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
         <v>117</v>
       </c>
@@ -7926,8 +8019,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
         <v>116</v>
       </c>
@@ -7945,10 +8038,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="16" t="b">
+      <c r="B52" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -7968,8 +8061,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="13" t="s">
         <v>118</v>
       </c>
@@ -7987,8 +8080,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="13" t="s">
         <v>117</v>
       </c>
@@ -8006,8 +8099,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="13" t="s">
         <v>116</v>
       </c>
@@ -8025,8 +8118,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="16" t="b">
+      <c r="A56" s="25"/>
+      <c r="B56" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -8046,8 +8139,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="13" t="s">
         <v>118</v>
       </c>
@@ -8065,8 +8158,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="13" t="s">
         <v>117</v>
       </c>
@@ -8084,8 +8177,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="13" t="s">
         <v>116</v>
       </c>
@@ -8103,10 +8196,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="16" t="b">
+      <c r="B60" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -8126,8 +8219,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="13" t="s">
         <v>118</v>
       </c>
@@ -8145,8 +8238,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="13" t="s">
         <v>117</v>
       </c>
@@ -8164,8 +8257,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="13" t="s">
         <v>116</v>
       </c>
@@ -8183,8 +8276,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="16" t="b">
+      <c r="A64" s="25"/>
+      <c r="B64" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -8204,8 +8297,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="13" t="s">
         <v>118</v>
       </c>
@@ -8223,8 +8316,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="13" t="s">
         <v>117</v>
       </c>
@@ -8242,8 +8335,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="13" t="s">
         <v>116</v>
       </c>
@@ -8261,10 +8354,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="16" t="b">
+      <c r="B68" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -8284,8 +8377,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="13" t="s">
         <v>118</v>
       </c>
@@ -8303,8 +8396,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="13" t="s">
         <v>117</v>
       </c>
@@ -8322,8 +8415,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="13" t="s">
         <v>116</v>
       </c>
@@ -8341,8 +8434,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="16" t="b">
+      <c r="A72" s="25"/>
+      <c r="B72" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -8362,8 +8455,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="13" t="s">
         <v>118</v>
       </c>
@@ -8381,8 +8474,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="13" t="s">
         <v>117</v>
       </c>
@@ -8400,8 +8493,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="13" t="s">
         <v>116</v>
       </c>
@@ -8419,10 +8512,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="16" t="b">
+      <c r="B76" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -8442,8 +8535,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="13" t="s">
         <v>118</v>
       </c>
@@ -8461,8 +8554,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="13" t="s">
         <v>117</v>
       </c>
@@ -8480,8 +8573,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="13" t="s">
         <v>116</v>
       </c>
@@ -8499,8 +8592,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="16" t="b">
+      <c r="A80" s="25"/>
+      <c r="B80" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -8520,8 +8613,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="13" t="s">
         <v>118</v>
       </c>
@@ -8539,8 +8632,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="13" t="s">
         <v>117</v>
       </c>
@@ -8558,8 +8651,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="13" t="s">
         <v>116</v>
       </c>
@@ -8578,22 +8671,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B35:B38"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A67"/>
     <mergeCell ref="A68:A75"/>
@@ -8610,6 +8687,22 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8619,7 +8712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D1724-AF38-DB4D-B112-F6FEB531872D}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
+    <sheetView zoomScale="220" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -8634,31 +8727,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21" t="b">
+      <c r="C2" s="26" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -8667,7 +8760,7 @@
       <c r="E2" s="12">
         <v>317530.90000000002</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>0.75</v>
       </c>
       <c r="G2" s="12">
@@ -8679,15 +8772,15 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="12">
         <v>3375479.27</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>0.65</v>
       </c>
       <c r="G3" s="12">
@@ -8699,10 +8792,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="13" t="s">
         <v>115</v>
       </c>
@@ -8720,8 +8813,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="13" t="s">
         <v>118</v>
       </c>
@@ -8739,8 +8832,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="13" t="s">
         <v>117</v>
       </c>
@@ -8758,8 +8851,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="13" t="s">
         <v>116</v>
       </c>
@@ -8777,14 +8870,14 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="16" t="b">
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>687.66456746133804</v>
       </c>
       <c r="F8" s="13">
@@ -8798,8 +8891,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
         <v>118</v>
       </c>
@@ -8809,16 +8902,16 @@
       <c r="F9" s="13">
         <v>9.7377960620463504E+16</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>38450217.344450898</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>6200.8239246450903</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="13" t="s">
         <v>117</v>
       </c>
@@ -8828,20 +8921,20 @@
       <c r="F10" s="13">
         <v>2.5229963061592602E+17</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>105859045.184744</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>10288.782492828999</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>1035.73425472177</v>
       </c>
       <c r="F11" s="13">
@@ -8855,39 +8948,39 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="26">
+      <c r="D14" s="18"/>
+      <c r="E14" s="23">
         <f>E2-E8</f>
         <v>316843.23543253867</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="26">
+      <c r="F14" s="18"/>
+      <c r="G14" s="23">
         <f>G2-G9</f>
         <v>167198928686.74445</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="23">
         <f>H2-H9</f>
         <v>402745.8460753549</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="26">
+      <c r="D15" s="18"/>
+      <c r="E15" s="23">
         <f>E2-E11</f>
         <v>316495.16574527824</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="26">
+      <c r="F15" s="18"/>
+      <c r="G15" s="23">
         <f>G2-G10</f>
         <v>167131519858.90414</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <f>H2-H10</f>
         <v>398657.88750717096</v>
       </c>
@@ -8907,7 +9000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943C64C-7BAE-554E-ABE2-93E3B1F0F6CB}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9402,4 +9495,382 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76786F9-7308-384A-8FB4-63DFA6842D5F}">
+  <dimension ref="C4:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="27"/>
+      <c r="D5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="27"/>
+      <c r="D9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="27"/>
+      <c r="D13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="27"/>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="27"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="27"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="27"/>
+      <c r="D21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="27"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>